--- a/data/sheet/msg_8706.xlsx
+++ b/data/sheet/msg_8706.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="485">
   <si>
     <t/>
   </si>
@@ -1325,6 +1325,156 @@
   </si>
   <si>
     <t>2022-03-17 13:18:49</t>
+  </si>
+  <si>
+    <t>2022-03-18 09:38:03</t>
+  </si>
+  <si>
+    <t>2022-03-18 09:41:09</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:40:27</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:41:36</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:59:26</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:08:24</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:09:31</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:10:32</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:11:35</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:12:38</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:13:38</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:14:38</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:15:39</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:16:42</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:17:42</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:18:44</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:19:47</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:23:48</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:24:56</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:25:57</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:27:00</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:28:02</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:29:02</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:30:03</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:31:05</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:32:05</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:33:06</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:34:09</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:35:11</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:36:12</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:37:13</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:38:14</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:39:15</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:40:17</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:41:19</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:42:19</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:43:21</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:44:21</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:45:25</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:46:24</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:47:27</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:48:28</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:49:28</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:50:31</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:51:33</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:52:36</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:53:34</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:54:36</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:55:38</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:56:40</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H427"/>
+  <dimension ref="A1:H477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12791,6 +12941,1306 @@
         <v>15.0</v>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>435</v>
+      </c>
+      <c r="B428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C428" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D428" t="n">
+        <v>1.647592684E9</v>
+      </c>
+      <c r="E428" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F428" t="s">
+        <v>10</v>
+      </c>
+      <c r="G428" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>436</v>
+      </c>
+      <c r="B429" t="s">
+        <v>0</v>
+      </c>
+      <c r="C429" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D429" t="n">
+        <v>1.64759287E9</v>
+      </c>
+      <c r="E429" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F429" t="s">
+        <v>10</v>
+      </c>
+      <c r="G429" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>437</v>
+      </c>
+      <c r="B430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C430" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D430" t="n">
+        <v>1.647603629E9</v>
+      </c>
+      <c r="E430" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F430" t="s">
+        <v>10</v>
+      </c>
+      <c r="G430" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>438</v>
+      </c>
+      <c r="B431" t="s">
+        <v>0</v>
+      </c>
+      <c r="C431" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D431" t="n">
+        <v>1.647603698E9</v>
+      </c>
+      <c r="E431" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F431" t="s">
+        <v>10</v>
+      </c>
+      <c r="G431" t="n">
+        <v>582.0</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>439</v>
+      </c>
+      <c r="B432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C432" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D432" t="n">
+        <v>1.647604768E9</v>
+      </c>
+      <c r="E432" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F432" t="s">
+        <v>10</v>
+      </c>
+      <c r="G432" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>440</v>
+      </c>
+      <c r="B433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C433" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D433" t="n">
+        <v>1.647605306E9</v>
+      </c>
+      <c r="E433" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F433" t="s">
+        <v>10</v>
+      </c>
+      <c r="G433" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>441</v>
+      </c>
+      <c r="B434" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D434" t="n">
+        <v>1.647605373E9</v>
+      </c>
+      <c r="E434" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F434" t="s">
+        <v>10</v>
+      </c>
+      <c r="G434" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>442</v>
+      </c>
+      <c r="B435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C435" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D435" t="n">
+        <v>1.647605434E9</v>
+      </c>
+      <c r="E435" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F435" t="s">
+        <v>10</v>
+      </c>
+      <c r="G435" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>443</v>
+      </c>
+      <c r="B436" t="s">
+        <v>0</v>
+      </c>
+      <c r="C436" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D436" t="n">
+        <v>1.647605497E9</v>
+      </c>
+      <c r="E436" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F436" t="s">
+        <v>10</v>
+      </c>
+      <c r="G436" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>444</v>
+      </c>
+      <c r="B437" t="s">
+        <v>0</v>
+      </c>
+      <c r="C437" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D437" t="n">
+        <v>1.64760556E9</v>
+      </c>
+      <c r="E437" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F437" t="s">
+        <v>10</v>
+      </c>
+      <c r="G437" t="n">
+        <v>626.0</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>445</v>
+      </c>
+      <c r="B438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C438" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D438" t="n">
+        <v>1.64760562E9</v>
+      </c>
+      <c r="E438" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F438" t="s">
+        <v>10</v>
+      </c>
+      <c r="G438" t="n">
+        <v>579.0</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>446</v>
+      </c>
+      <c r="B439" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D439" t="n">
+        <v>1.64760568E9</v>
+      </c>
+      <c r="E439" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F439" t="s">
+        <v>10</v>
+      </c>
+      <c r="G439" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>447</v>
+      </c>
+      <c r="B440" t="s">
+        <v>0</v>
+      </c>
+      <c r="C440" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D440" t="n">
+        <v>1.647605741E9</v>
+      </c>
+      <c r="E440" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F440" t="s">
+        <v>10</v>
+      </c>
+      <c r="G440" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>448</v>
+      </c>
+      <c r="B441" t="s">
+        <v>0</v>
+      </c>
+      <c r="C441" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D441" t="n">
+        <v>1.647605804E9</v>
+      </c>
+      <c r="E441" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F441" t="s">
+        <v>10</v>
+      </c>
+      <c r="G441" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>449</v>
+      </c>
+      <c r="B442" t="s">
+        <v>0</v>
+      </c>
+      <c r="C442" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D442" t="n">
+        <v>1.647605864E9</v>
+      </c>
+      <c r="E442" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F442" t="s">
+        <v>10</v>
+      </c>
+      <c r="G442" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>450</v>
+      </c>
+      <c r="B443" t="s">
+        <v>0</v>
+      </c>
+      <c r="C443" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D443" t="n">
+        <v>1.647605926E9</v>
+      </c>
+      <c r="E443" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F443" t="s">
+        <v>10</v>
+      </c>
+      <c r="G443" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>451</v>
+      </c>
+      <c r="B444" t="s">
+        <v>0</v>
+      </c>
+      <c r="C444" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D444" t="n">
+        <v>1.647605988E9</v>
+      </c>
+      <c r="E444" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F444" t="s">
+        <v>10</v>
+      </c>
+      <c r="G444" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>452</v>
+      </c>
+      <c r="B445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C445" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D445" t="n">
+        <v>1.64761343E9</v>
+      </c>
+      <c r="E445" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F445" t="s">
+        <v>10</v>
+      </c>
+      <c r="G445" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>453</v>
+      </c>
+      <c r="B446" t="s">
+        <v>0</v>
+      </c>
+      <c r="C446" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D446" t="n">
+        <v>1.647613499E9</v>
+      </c>
+      <c r="E446" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F446" t="s">
+        <v>10</v>
+      </c>
+      <c r="G446" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>454</v>
+      </c>
+      <c r="B447" t="s">
+        <v>0</v>
+      </c>
+      <c r="C447" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D447" t="n">
+        <v>1.64761356E9</v>
+      </c>
+      <c r="E447" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F447" t="s">
+        <v>10</v>
+      </c>
+      <c r="G447" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>455</v>
+      </c>
+      <c r="B448" t="s">
+        <v>0</v>
+      </c>
+      <c r="C448" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D448" t="n">
+        <v>1.647613622E9</v>
+      </c>
+      <c r="E448" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F448" t="s">
+        <v>10</v>
+      </c>
+      <c r="G448" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>456</v>
+      </c>
+      <c r="B449" t="s">
+        <v>0</v>
+      </c>
+      <c r="C449" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D449" t="n">
+        <v>1.647613684E9</v>
+      </c>
+      <c r="E449" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F449" t="s">
+        <v>10</v>
+      </c>
+      <c r="G449" t="n">
+        <v>519.0</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>457</v>
+      </c>
+      <c r="B450" t="s">
+        <v>0</v>
+      </c>
+      <c r="C450" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D450" t="n">
+        <v>1.647613744E9</v>
+      </c>
+      <c r="E450" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F450" t="s">
+        <v>10</v>
+      </c>
+      <c r="G450" t="n">
+        <v>629.0</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>458</v>
+      </c>
+      <c r="B451" t="s">
+        <v>0</v>
+      </c>
+      <c r="C451" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D451" t="n">
+        <v>1.647613805E9</v>
+      </c>
+      <c r="E451" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F451" t="s">
+        <v>10</v>
+      </c>
+      <c r="G451" t="n">
+        <v>1355.0</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>459</v>
+      </c>
+      <c r="B452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D452" t="n">
+        <v>1.647613868E9</v>
+      </c>
+      <c r="E452" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F452" t="s">
+        <v>10</v>
+      </c>
+      <c r="G452" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>460</v>
+      </c>
+      <c r="B453" t="s">
+        <v>0</v>
+      </c>
+      <c r="C453" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D453" t="n">
+        <v>1.647613927E9</v>
+      </c>
+      <c r="E453" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F453" t="s">
+        <v>10</v>
+      </c>
+      <c r="G453" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>461</v>
+      </c>
+      <c r="B454" t="s">
+        <v>0</v>
+      </c>
+      <c r="C454" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D454" t="n">
+        <v>1.647613989E9</v>
+      </c>
+      <c r="E454" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F454" t="s">
+        <v>10</v>
+      </c>
+      <c r="G454" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>462</v>
+      </c>
+      <c r="B455" t="s">
+        <v>0</v>
+      </c>
+      <c r="C455" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D455" t="n">
+        <v>1.647614051E9</v>
+      </c>
+      <c r="E455" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F455" t="s">
+        <v>10</v>
+      </c>
+      <c r="G455" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>463</v>
+      </c>
+      <c r="B456" t="s">
+        <v>0</v>
+      </c>
+      <c r="C456" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D456" t="n">
+        <v>1.647614113E9</v>
+      </c>
+      <c r="E456" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F456" t="s">
+        <v>10</v>
+      </c>
+      <c r="G456" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>464</v>
+      </c>
+      <c r="B457" t="s">
+        <v>0</v>
+      </c>
+      <c r="C457" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D457" t="n">
+        <v>1.647614174E9</v>
+      </c>
+      <c r="E457" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F457" t="s">
+        <v>10</v>
+      </c>
+      <c r="G457" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>465</v>
+      </c>
+      <c r="B458" t="s">
+        <v>0</v>
+      </c>
+      <c r="C458" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D458" t="n">
+        <v>1.647614236E9</v>
+      </c>
+      <c r="E458" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F458" t="s">
+        <v>10</v>
+      </c>
+      <c r="G458" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>466</v>
+      </c>
+      <c r="B459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C459" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D459" t="n">
+        <v>1.647614297E9</v>
+      </c>
+      <c r="E459" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F459" t="s">
+        <v>10</v>
+      </c>
+      <c r="G459" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>467</v>
+      </c>
+      <c r="B460" t="s">
+        <v>0</v>
+      </c>
+      <c r="C460" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D460" t="n">
+        <v>1.647614358E9</v>
+      </c>
+      <c r="E460" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F460" t="s">
+        <v>10</v>
+      </c>
+      <c r="G460" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>468</v>
+      </c>
+      <c r="B461" t="s">
+        <v>0</v>
+      </c>
+      <c r="C461" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D461" t="n">
+        <v>1.647614419E9</v>
+      </c>
+      <c r="E461" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F461" t="s">
+        <v>10</v>
+      </c>
+      <c r="G461" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>469</v>
+      </c>
+      <c r="B462" t="s">
+        <v>0</v>
+      </c>
+      <c r="C462" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D462" t="n">
+        <v>1.647614482E9</v>
+      </c>
+      <c r="E462" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F462" t="s">
+        <v>10</v>
+      </c>
+      <c r="G462" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>470</v>
+      </c>
+      <c r="B463" t="s">
+        <v>0</v>
+      </c>
+      <c r="C463" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D463" t="n">
+        <v>1.647614541E9</v>
+      </c>
+      <c r="E463" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F463" t="s">
+        <v>10</v>
+      </c>
+      <c r="G463" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>471</v>
+      </c>
+      <c r="B464" t="s">
+        <v>0</v>
+      </c>
+      <c r="C464" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D464" t="n">
+        <v>1.647614604E9</v>
+      </c>
+      <c r="E464" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F464" t="s">
+        <v>10</v>
+      </c>
+      <c r="G464" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>472</v>
+      </c>
+      <c r="B465" t="s">
+        <v>0</v>
+      </c>
+      <c r="C465" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1.647614664E9</v>
+      </c>
+      <c r="E465" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F465" t="s">
+        <v>10</v>
+      </c>
+      <c r="G465" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>473</v>
+      </c>
+      <c r="B466" t="s">
+        <v>0</v>
+      </c>
+      <c r="C466" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1.647614728E9</v>
+      </c>
+      <c r="E466" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F466" t="s">
+        <v>10</v>
+      </c>
+      <c r="G466" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>474</v>
+      </c>
+      <c r="B467" t="s">
+        <v>0</v>
+      </c>
+      <c r="C467" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D467" t="n">
+        <v>1.647614787E9</v>
+      </c>
+      <c r="E467" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F467" t="s">
+        <v>10</v>
+      </c>
+      <c r="G467" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>475</v>
+      </c>
+      <c r="B468" t="s">
+        <v>0</v>
+      </c>
+      <c r="C468" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D468" t="n">
+        <v>1.647614849E9</v>
+      </c>
+      <c r="E468" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F468" t="s">
+        <v>10</v>
+      </c>
+      <c r="G468" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>476</v>
+      </c>
+      <c r="B469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C469" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D469" t="n">
+        <v>1.647614911E9</v>
+      </c>
+      <c r="E469" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F469" t="s">
+        <v>10</v>
+      </c>
+      <c r="G469" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>477</v>
+      </c>
+      <c r="B470" t="s">
+        <v>0</v>
+      </c>
+      <c r="C470" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1.647614971E9</v>
+      </c>
+      <c r="E470" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F470" t="s">
+        <v>10</v>
+      </c>
+      <c r="G470" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>478</v>
+      </c>
+      <c r="B471" t="s">
+        <v>0</v>
+      </c>
+      <c r="C471" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D471" t="n">
+        <v>1.647615034E9</v>
+      </c>
+      <c r="E471" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F471" t="s">
+        <v>10</v>
+      </c>
+      <c r="G471" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>479</v>
+      </c>
+      <c r="B472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C472" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D472" t="n">
+        <v>1.647615096E9</v>
+      </c>
+      <c r="E472" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F472" t="s">
+        <v>10</v>
+      </c>
+      <c r="G472" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>480</v>
+      </c>
+      <c r="B473" t="s">
+        <v>0</v>
+      </c>
+      <c r="C473" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D473" t="n">
+        <v>1.647615158E9</v>
+      </c>
+      <c r="E473" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F473" t="s">
+        <v>10</v>
+      </c>
+      <c r="G473" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>481</v>
+      </c>
+      <c r="B474" t="s">
+        <v>0</v>
+      </c>
+      <c r="C474" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D474" t="n">
+        <v>1.647615216E9</v>
+      </c>
+      <c r="E474" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F474" t="s">
+        <v>10</v>
+      </c>
+      <c r="G474" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>482</v>
+      </c>
+      <c r="B475" t="s">
+        <v>0</v>
+      </c>
+      <c r="C475" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D475" t="n">
+        <v>1.647615278E9</v>
+      </c>
+      <c r="E475" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F475" t="s">
+        <v>10</v>
+      </c>
+      <c r="G475" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>483</v>
+      </c>
+      <c r="B476" t="s">
+        <v>0</v>
+      </c>
+      <c r="C476" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1.64761534E9</v>
+      </c>
+      <c r="E476" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F476" t="s">
+        <v>10</v>
+      </c>
+      <c r="G476" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>484</v>
+      </c>
+      <c r="B477" t="s">
+        <v>0</v>
+      </c>
+      <c r="C477" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D477" t="n">
+        <v>1.647615403E9</v>
+      </c>
+      <c r="E477" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F477" t="s">
+        <v>10</v>
+      </c>
+      <c r="G477" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8706.xlsx
+++ b/data/sheet/msg_8706.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="544">
   <si>
     <t/>
   </si>
@@ -1475,6 +1475,183 @@
   </si>
   <si>
     <t>2022-03-18 15:56:40</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:40:32</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:41:39</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:42:42</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:53:51</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:24:17</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:25:24</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:26:25</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:27:27</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:28:28</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:29:32</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:30:33</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:31:33</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:32:37</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:33:36</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:34:38</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:35:41</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:36:41</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:37:43</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:38:45</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:39:46</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:40:48</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:41:50</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:42:51</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:43:53</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:44:55</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:45:57</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:46:59</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:48:02</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:49:03</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:50:05</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:20:34</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:21:40</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:22:42</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:23:45</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:24:44</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:25:47</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:26:48</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:27:48</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:28:51</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:29:52</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:30:56</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:31:56</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:32:57</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:34:00</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:35:01</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:36:03</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:37:04</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:38:07</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:39:07</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:40:09</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:41:11</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:42:12</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:43:16</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:35:28</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:39:45</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:04:06</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:42:57</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:56:35</t>
+  </si>
+  <si>
+    <t>2022-03-21 11:37:04</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +2004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H477"/>
+  <dimension ref="A1:H536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14241,6 +14418,1540 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>485</v>
+      </c>
+      <c r="B478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C478" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D478" t="n">
+        <v>1.647758432E9</v>
+      </c>
+      <c r="E478" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F478" t="s">
+        <v>10</v>
+      </c>
+      <c r="G478" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="H478" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>486</v>
+      </c>
+      <c r="B479" t="s">
+        <v>0</v>
+      </c>
+      <c r="C479" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D479" t="n">
+        <v>1.647758499E9</v>
+      </c>
+      <c r="E479" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F479" t="s">
+        <v>10</v>
+      </c>
+      <c r="G479" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="H479" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>487</v>
+      </c>
+      <c r="B480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C480" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D480" t="n">
+        <v>1.647758562E9</v>
+      </c>
+      <c r="E480" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F480" t="s">
+        <v>10</v>
+      </c>
+      <c r="G480" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="H480" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>488</v>
+      </c>
+      <c r="B481" t="s">
+        <v>0</v>
+      </c>
+      <c r="C481" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D481" t="n">
+        <v>1.647759232E9</v>
+      </c>
+      <c r="E481" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F481" t="s">
+        <v>10</v>
+      </c>
+      <c r="G481" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="H481" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>489</v>
+      </c>
+      <c r="B482" t="s">
+        <v>0</v>
+      </c>
+      <c r="C482" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D482" t="n">
+        <v>1.647761057E9</v>
+      </c>
+      <c r="E482" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F482" t="s">
+        <v>10</v>
+      </c>
+      <c r="G482" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H482" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>490</v>
+      </c>
+      <c r="B483" t="s">
+        <v>0</v>
+      </c>
+      <c r="C483" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D483" t="n">
+        <v>1.647761124E9</v>
+      </c>
+      <c r="E483" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F483" t="s">
+        <v>10</v>
+      </c>
+      <c r="G483" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="H483" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>491</v>
+      </c>
+      <c r="B484" t="s">
+        <v>0</v>
+      </c>
+      <c r="C484" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1.647761186E9</v>
+      </c>
+      <c r="E484" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F484" t="s">
+        <v>10</v>
+      </c>
+      <c r="G484" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="H484" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>492</v>
+      </c>
+      <c r="B485" t="s">
+        <v>0</v>
+      </c>
+      <c r="C485" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D485" t="n">
+        <v>1.647761247E9</v>
+      </c>
+      <c r="E485" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F485" t="s">
+        <v>10</v>
+      </c>
+      <c r="G485" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="H485" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>493</v>
+      </c>
+      <c r="B486" t="s">
+        <v>0</v>
+      </c>
+      <c r="C486" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1.647761309E9</v>
+      </c>
+      <c r="E486" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F486" t="s">
+        <v>10</v>
+      </c>
+      <c r="G486" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="H486" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>494</v>
+      </c>
+      <c r="B487" t="s">
+        <v>0</v>
+      </c>
+      <c r="C487" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D487" t="n">
+        <v>1.647761372E9</v>
+      </c>
+      <c r="E487" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F487" t="s">
+        <v>10</v>
+      </c>
+      <c r="G487" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H487" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>495</v>
+      </c>
+      <c r="B488" t="s">
+        <v>0</v>
+      </c>
+      <c r="C488" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D488" t="n">
+        <v>1.647761433E9</v>
+      </c>
+      <c r="E488" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F488" t="s">
+        <v>10</v>
+      </c>
+      <c r="G488" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H488" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>496</v>
+      </c>
+      <c r="B489" t="s">
+        <v>0</v>
+      </c>
+      <c r="C489" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D489" t="n">
+        <v>1.647761494E9</v>
+      </c>
+      <c r="E489" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F489" t="s">
+        <v>10</v>
+      </c>
+      <c r="G489" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="H489" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>497</v>
+      </c>
+      <c r="B490" t="s">
+        <v>0</v>
+      </c>
+      <c r="C490" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D490" t="n">
+        <v>1.647761557E9</v>
+      </c>
+      <c r="E490" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F490" t="s">
+        <v>10</v>
+      </c>
+      <c r="G490" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="H490" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>498</v>
+      </c>
+      <c r="B491" t="s">
+        <v>0</v>
+      </c>
+      <c r="C491" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D491" t="n">
+        <v>1.647761617E9</v>
+      </c>
+      <c r="E491" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F491" t="s">
+        <v>10</v>
+      </c>
+      <c r="G491" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="H491" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>499</v>
+      </c>
+      <c r="B492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C492" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D492" t="n">
+        <v>1.647761678E9</v>
+      </c>
+      <c r="E492" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F492" t="s">
+        <v>10</v>
+      </c>
+      <c r="G492" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="H492" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>500</v>
+      </c>
+      <c r="B493" t="s">
+        <v>0</v>
+      </c>
+      <c r="C493" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D493" t="n">
+        <v>1.647761741E9</v>
+      </c>
+      <c r="E493" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F493" t="s">
+        <v>10</v>
+      </c>
+      <c r="G493" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="H493" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>501</v>
+      </c>
+      <c r="B494" t="s">
+        <v>0</v>
+      </c>
+      <c r="C494" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D494" t="n">
+        <v>1.647761801E9</v>
+      </c>
+      <c r="E494" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F494" t="s">
+        <v>10</v>
+      </c>
+      <c r="G494" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H494" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>502</v>
+      </c>
+      <c r="B495" t="s">
+        <v>0</v>
+      </c>
+      <c r="C495" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D495" t="n">
+        <v>1.647761864E9</v>
+      </c>
+      <c r="E495" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F495" t="s">
+        <v>10</v>
+      </c>
+      <c r="G495" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H495" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>503</v>
+      </c>
+      <c r="B496" t="s">
+        <v>0</v>
+      </c>
+      <c r="C496" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D496" t="n">
+        <v>1.647761926E9</v>
+      </c>
+      <c r="E496" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F496" t="s">
+        <v>10</v>
+      </c>
+      <c r="G496" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="H496" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>504</v>
+      </c>
+      <c r="B497" t="s">
+        <v>0</v>
+      </c>
+      <c r="C497" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D497" t="n">
+        <v>1.647761986E9</v>
+      </c>
+      <c r="E497" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F497" t="s">
+        <v>10</v>
+      </c>
+      <c r="G497" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="H497" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>505</v>
+      </c>
+      <c r="B498" t="s">
+        <v>0</v>
+      </c>
+      <c r="C498" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D498" t="n">
+        <v>1.647762049E9</v>
+      </c>
+      <c r="E498" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F498" t="s">
+        <v>10</v>
+      </c>
+      <c r="G498" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="H498" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>506</v>
+      </c>
+      <c r="B499" t="s">
+        <v>0</v>
+      </c>
+      <c r="C499" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D499" t="n">
+        <v>1.64776211E9</v>
+      </c>
+      <c r="E499" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F499" t="s">
+        <v>10</v>
+      </c>
+      <c r="G499" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="H499" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>507</v>
+      </c>
+      <c r="B500" t="s">
+        <v>0</v>
+      </c>
+      <c r="C500" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D500" t="n">
+        <v>1.647762171E9</v>
+      </c>
+      <c r="E500" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F500" t="s">
+        <v>10</v>
+      </c>
+      <c r="G500" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="H500" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>508</v>
+      </c>
+      <c r="B501" t="s">
+        <v>0</v>
+      </c>
+      <c r="C501" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1.647762233E9</v>
+      </c>
+      <c r="E501" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F501" t="s">
+        <v>10</v>
+      </c>
+      <c r="G501" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="H501" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>509</v>
+      </c>
+      <c r="B502" t="s">
+        <v>0</v>
+      </c>
+      <c r="C502" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D502" t="n">
+        <v>1.647762296E9</v>
+      </c>
+      <c r="E502" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F502" t="s">
+        <v>10</v>
+      </c>
+      <c r="G502" t="n">
+        <v>292.0</v>
+      </c>
+      <c r="H502" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>510</v>
+      </c>
+      <c r="B503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C503" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D503" t="n">
+        <v>1.647762357E9</v>
+      </c>
+      <c r="E503" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F503" t="s">
+        <v>10</v>
+      </c>
+      <c r="G503" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="H503" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>511</v>
+      </c>
+      <c r="B504" t="s">
+        <v>0</v>
+      </c>
+      <c r="C504" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D504" t="n">
+        <v>1.647762419E9</v>
+      </c>
+      <c r="E504" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F504" t="s">
+        <v>10</v>
+      </c>
+      <c r="G504" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="H504" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>512</v>
+      </c>
+      <c r="B505" t="s">
+        <v>0</v>
+      </c>
+      <c r="C505" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D505" t="n">
+        <v>1.647762482E9</v>
+      </c>
+      <c r="E505" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F505" t="s">
+        <v>10</v>
+      </c>
+      <c r="G505" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="H505" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>513</v>
+      </c>
+      <c r="B506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C506" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D506" t="n">
+        <v>1.647762543E9</v>
+      </c>
+      <c r="E506" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F506" t="s">
+        <v>10</v>
+      </c>
+      <c r="G506" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="H506" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>514</v>
+      </c>
+      <c r="B507" t="s">
+        <v>0</v>
+      </c>
+      <c r="C507" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D507" t="n">
+        <v>1.647762605E9</v>
+      </c>
+      <c r="E507" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F507" t="s">
+        <v>10</v>
+      </c>
+      <c r="G507" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H507" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>515</v>
+      </c>
+      <c r="B508" t="s">
+        <v>0</v>
+      </c>
+      <c r="C508" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D508" t="n">
+        <v>1.647764434E9</v>
+      </c>
+      <c r="E508" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F508" t="s">
+        <v>10</v>
+      </c>
+      <c r="G508" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="H508" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>516</v>
+      </c>
+      <c r="B509" t="s">
+        <v>0</v>
+      </c>
+      <c r="C509" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D509" t="n">
+        <v>1.647764501E9</v>
+      </c>
+      <c r="E509" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F509" t="s">
+        <v>10</v>
+      </c>
+      <c r="G509" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="H509" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>517</v>
+      </c>
+      <c r="B510" t="s">
+        <v>0</v>
+      </c>
+      <c r="C510" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D510" t="n">
+        <v>1.647764562E9</v>
+      </c>
+      <c r="E510" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F510" t="s">
+        <v>10</v>
+      </c>
+      <c r="G510" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="H510" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>518</v>
+      </c>
+      <c r="B511" t="s">
+        <v>0</v>
+      </c>
+      <c r="C511" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D511" t="n">
+        <v>1.647764626E9</v>
+      </c>
+      <c r="E511" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F511" t="s">
+        <v>10</v>
+      </c>
+      <c r="G511" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H511" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>519</v>
+      </c>
+      <c r="B512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C512" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D512" t="n">
+        <v>1.647764685E9</v>
+      </c>
+      <c r="E512" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F512" t="s">
+        <v>10</v>
+      </c>
+      <c r="G512" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="H512" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>520</v>
+      </c>
+      <c r="B513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C513" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D513" t="n">
+        <v>1.647764747E9</v>
+      </c>
+      <c r="E513" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F513" t="s">
+        <v>10</v>
+      </c>
+      <c r="G513" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="H513" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>521</v>
+      </c>
+      <c r="B514" t="s">
+        <v>0</v>
+      </c>
+      <c r="C514" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D514" t="n">
+        <v>1.647764808E9</v>
+      </c>
+      <c r="E514" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F514" t="s">
+        <v>10</v>
+      </c>
+      <c r="G514" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="H514" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>522</v>
+      </c>
+      <c r="B515" t="s">
+        <v>0</v>
+      </c>
+      <c r="C515" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D515" t="n">
+        <v>1.647764869E9</v>
+      </c>
+      <c r="E515" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F515" t="s">
+        <v>10</v>
+      </c>
+      <c r="G515" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="H515" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>523</v>
+      </c>
+      <c r="B516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C516" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D516" t="n">
+        <v>1.647764931E9</v>
+      </c>
+      <c r="E516" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F516" t="s">
+        <v>10</v>
+      </c>
+      <c r="G516" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="H516" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>524</v>
+      </c>
+      <c r="B517" t="s">
+        <v>0</v>
+      </c>
+      <c r="C517" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D517" t="n">
+        <v>1.647764993E9</v>
+      </c>
+      <c r="E517" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F517" t="s">
+        <v>10</v>
+      </c>
+      <c r="G517" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="H517" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>525</v>
+      </c>
+      <c r="B518" t="s">
+        <v>0</v>
+      </c>
+      <c r="C518" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D518" t="n">
+        <v>1.647765056E9</v>
+      </c>
+      <c r="E518" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F518" t="s">
+        <v>10</v>
+      </c>
+      <c r="G518" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="H518" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>526</v>
+      </c>
+      <c r="B519" t="s">
+        <v>0</v>
+      </c>
+      <c r="C519" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D519" t="n">
+        <v>1.647765116E9</v>
+      </c>
+      <c r="E519" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F519" t="s">
+        <v>10</v>
+      </c>
+      <c r="G519" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="H519" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>527</v>
+      </c>
+      <c r="B520" t="s">
+        <v>0</v>
+      </c>
+      <c r="C520" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D520" t="n">
+        <v>1.647765177E9</v>
+      </c>
+      <c r="E520" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F520" t="s">
+        <v>10</v>
+      </c>
+      <c r="G520" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="H520" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>528</v>
+      </c>
+      <c r="B521" t="s">
+        <v>0</v>
+      </c>
+      <c r="C521" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D521" t="n">
+        <v>1.647765241E9</v>
+      </c>
+      <c r="E521" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F521" t="s">
+        <v>10</v>
+      </c>
+      <c r="G521" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="H521" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>529</v>
+      </c>
+      <c r="B522" t="s">
+        <v>0</v>
+      </c>
+      <c r="C522" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D522" t="n">
+        <v>1.647765301E9</v>
+      </c>
+      <c r="E522" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F522" t="s">
+        <v>10</v>
+      </c>
+      <c r="G522" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="H522" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>530</v>
+      </c>
+      <c r="B523" t="s">
+        <v>0</v>
+      </c>
+      <c r="C523" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1.647765363E9</v>
+      </c>
+      <c r="E523" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F523" t="s">
+        <v>10</v>
+      </c>
+      <c r="G523" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="H523" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>531</v>
+      </c>
+      <c r="B524" t="s">
+        <v>0</v>
+      </c>
+      <c r="C524" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D524" t="n">
+        <v>1.647765424E9</v>
+      </c>
+      <c r="E524" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F524" t="s">
+        <v>10</v>
+      </c>
+      <c r="G524" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="H524" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>532</v>
+      </c>
+      <c r="B525" t="s">
+        <v>0</v>
+      </c>
+      <c r="C525" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D525" t="n">
+        <v>1.647765487E9</v>
+      </c>
+      <c r="E525" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F525" t="s">
+        <v>10</v>
+      </c>
+      <c r="G525" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="H525" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>533</v>
+      </c>
+      <c r="B526" t="s">
+        <v>0</v>
+      </c>
+      <c r="C526" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D526" t="n">
+        <v>1.647765548E9</v>
+      </c>
+      <c r="E526" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F526" t="s">
+        <v>10</v>
+      </c>
+      <c r="G526" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="H526" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>534</v>
+      </c>
+      <c r="B527" t="s">
+        <v>0</v>
+      </c>
+      <c r="C527" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D527" t="n">
+        <v>1.647765609E9</v>
+      </c>
+      <c r="E527" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F527" t="s">
+        <v>10</v>
+      </c>
+      <c r="G527" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H527" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>535</v>
+      </c>
+      <c r="B528" t="s">
+        <v>0</v>
+      </c>
+      <c r="C528" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D528" t="n">
+        <v>1.647765672E9</v>
+      </c>
+      <c r="E528" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F528" t="s">
+        <v>10</v>
+      </c>
+      <c r="G528" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="H528" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>536</v>
+      </c>
+      <c r="B529" t="s">
+        <v>0</v>
+      </c>
+      <c r="C529" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D529" t="n">
+        <v>1.647765733E9</v>
+      </c>
+      <c r="E529" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F529" t="s">
+        <v>10</v>
+      </c>
+      <c r="G529" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="H529" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>537</v>
+      </c>
+      <c r="B530" t="s">
+        <v>0</v>
+      </c>
+      <c r="C530" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D530" t="n">
+        <v>1.647765795E9</v>
+      </c>
+      <c r="E530" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F530" t="s">
+        <v>10</v>
+      </c>
+      <c r="G530" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="H530" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>538</v>
+      </c>
+      <c r="B531" t="s">
+        <v>0</v>
+      </c>
+      <c r="C531" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D531" t="n">
+        <v>1.647851729E9</v>
+      </c>
+      <c r="E531" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F531" t="s">
+        <v>10</v>
+      </c>
+      <c r="G531" t="n">
+        <v>727.0</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>539</v>
+      </c>
+      <c r="B532" t="s">
+        <v>0</v>
+      </c>
+      <c r="C532" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D532" t="n">
+        <v>1.647851986E9</v>
+      </c>
+      <c r="E532" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F532" t="s">
+        <v>10</v>
+      </c>
+      <c r="G532" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>540</v>
+      </c>
+      <c r="B533" t="s">
+        <v>0</v>
+      </c>
+      <c r="C533" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1.647853447E9</v>
+      </c>
+      <c r="E533" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="F533" t="s">
+        <v>10</v>
+      </c>
+      <c r="G533" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>541</v>
+      </c>
+      <c r="B534" t="s">
+        <v>0</v>
+      </c>
+      <c r="C534" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D534" t="n">
+        <v>1.647855779E9</v>
+      </c>
+      <c r="E534" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="F534" t="s">
+        <v>10</v>
+      </c>
+      <c r="G534" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>542</v>
+      </c>
+      <c r="B535" t="s">
+        <v>0</v>
+      </c>
+      <c r="C535" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D535" t="n">
+        <v>1.647856596E9</v>
+      </c>
+      <c r="E535" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F535" t="s">
+        <v>10</v>
+      </c>
+      <c r="G535" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>543</v>
+      </c>
+      <c r="B536" t="s">
+        <v>0</v>
+      </c>
+      <c r="C536" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1.647859026E9</v>
+      </c>
+      <c r="E536" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F536" t="s">
+        <v>10</v>
+      </c>
+      <c r="G536" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8706.xlsx
+++ b/data/sheet/msg_8706.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="545">
   <si>
     <t/>
   </si>
@@ -1652,6 +1652,9 @@
   </si>
   <si>
     <t>2022-03-21 11:37:04</t>
+  </si>
+  <si>
+    <t>2022-03-21 13:48:25</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H536"/>
+  <dimension ref="A1:H537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15952,6 +15955,32 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>544</v>
+      </c>
+      <c r="B537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C537" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D537" t="n">
+        <v>1.647866907E9</v>
+      </c>
+      <c r="E537" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F537" t="s">
+        <v>10</v>
+      </c>
+      <c r="G537" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8706.xlsx
+++ b/data/sheet/msg_8706.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="546">
   <si>
     <t/>
   </si>
@@ -1655,6 +1655,9 @@
   </si>
   <si>
     <t>2022-03-21 13:48:25</t>
+  </si>
+  <si>
+    <t>2022-03-21 17:10:28</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H537"/>
+  <dimension ref="A1:H538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15981,6 +15984,32 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>545</v>
+      </c>
+      <c r="B538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C538" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D538" t="n">
+        <v>1.647879031E9</v>
+      </c>
+      <c r="E538" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F538" t="s">
+        <v>10</v>
+      </c>
+      <c r="G538" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8706.xlsx
+++ b/data/sheet/msg_8706.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="571">
   <si>
     <t/>
   </si>
@@ -1658,6 +1658,82 @@
   </si>
   <si>
     <t>2022-03-21 17:10:28</t>
+  </si>
+  <si>
+    <t>2022-03-22 07:31:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8: 255
+</t>
+  </si>
+  <si>
+    <t>2022-03-22 07:52:18</t>
+  </si>
+  <si>
+    <t>2022-03-22 07:52:48</t>
+  </si>
+  <si>
+    <t>2022-03-22 07:53:18</t>
+  </si>
+  <si>
+    <t>2022-03-22 07:53:58</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:10:21</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:21:22</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:28:24</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:23:31</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:52:35</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:57:36</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:03:37</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:26:39</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:29:40</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:43:43</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:01:45</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:06:47</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:17:48</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:20:10</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:23:49</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:54:53</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:59:53</t>
+  </si>
+  <si>
+    <t>2022-03-22 12:40:58</t>
+  </si>
+  <si>
+    <t>2022-03-22 12:43:57</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H538"/>
+  <dimension ref="A1:H562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16010,6 +16086,630 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>546</v>
+      </c>
+      <c r="B539" t="s">
+        <v>547</v>
+      </c>
+      <c r="C539" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1.647930674E9</v>
+      </c>
+      <c r="E539" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F539" t="s">
+        <v>10</v>
+      </c>
+      <c r="G539" t="n">
+        <v>885.0</v>
+      </c>
+      <c r="H539" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>548</v>
+      </c>
+      <c r="B540" t="s">
+        <v>547</v>
+      </c>
+      <c r="C540" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D540" t="n">
+        <v>1.647931939E9</v>
+      </c>
+      <c r="E540" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F540" t="s">
+        <v>10</v>
+      </c>
+      <c r="G540" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="H540" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>549</v>
+      </c>
+      <c r="B541" t="s">
+        <v>547</v>
+      </c>
+      <c r="C541" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D541" t="n">
+        <v>1.647931939E9</v>
+      </c>
+      <c r="E541" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F541" t="s">
+        <v>10</v>
+      </c>
+      <c r="G541" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="H541" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>550</v>
+      </c>
+      <c r="B542" t="s">
+        <v>547</v>
+      </c>
+      <c r="C542" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D542" t="n">
+        <v>1.647931939E9</v>
+      </c>
+      <c r="E542" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F542" t="s">
+        <v>10</v>
+      </c>
+      <c r="G542" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="H542" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>551</v>
+      </c>
+      <c r="B543" t="s">
+        <v>547</v>
+      </c>
+      <c r="C543" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D543" t="n">
+        <v>1.647932039E9</v>
+      </c>
+      <c r="E543" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F543" t="s">
+        <v>10</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-721383.0</v>
+      </c>
+      <c r="H543" t="n">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>552</v>
+      </c>
+      <c r="B544" t="s">
+        <v>547</v>
+      </c>
+      <c r="C544" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D544" t="n">
+        <v>1.647933022E9</v>
+      </c>
+      <c r="E544" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F544" t="s">
+        <v>10</v>
+      </c>
+      <c r="G544" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="H544" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>553</v>
+      </c>
+      <c r="B545" t="s">
+        <v>547</v>
+      </c>
+      <c r="C545" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D545" t="n">
+        <v>1.647933683E9</v>
+      </c>
+      <c r="E545" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F545" t="s">
+        <v>10</v>
+      </c>
+      <c r="G545" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="H545" t="n">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>554</v>
+      </c>
+      <c r="B546" t="s">
+        <v>547</v>
+      </c>
+      <c r="C546" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D546" t="n">
+        <v>1.647934105E9</v>
+      </c>
+      <c r="E546" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F546" t="s">
+        <v>10</v>
+      </c>
+      <c r="G546" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="H546" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>555</v>
+      </c>
+      <c r="B547" t="s">
+        <v>547</v>
+      </c>
+      <c r="C547" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D547" t="n">
+        <v>1.647937412E9</v>
+      </c>
+      <c r="E547" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F547" t="s">
+        <v>10</v>
+      </c>
+      <c r="G547" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="H547" t="n">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>556</v>
+      </c>
+      <c r="B548" t="s">
+        <v>547</v>
+      </c>
+      <c r="C548" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D548" t="n">
+        <v>1.647939156E9</v>
+      </c>
+      <c r="E548" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F548" t="s">
+        <v>10</v>
+      </c>
+      <c r="G548" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="H548" t="n">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>557</v>
+      </c>
+      <c r="B549" t="s">
+        <v>547</v>
+      </c>
+      <c r="C549" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D549" t="n">
+        <v>1.647939457E9</v>
+      </c>
+      <c r="E549" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F549" t="s">
+        <v>10</v>
+      </c>
+      <c r="G549" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="H549" t="n">
+        <v>74.0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>558</v>
+      </c>
+      <c r="B550" t="s">
+        <v>547</v>
+      </c>
+      <c r="C550" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D550" t="n">
+        <v>1.647939818E9</v>
+      </c>
+      <c r="E550" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F550" t="s">
+        <v>10</v>
+      </c>
+      <c r="G550" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="H550" t="n">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>559</v>
+      </c>
+      <c r="B551" t="s">
+        <v>547</v>
+      </c>
+      <c r="C551" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D551" t="n">
+        <v>1.6479412E9</v>
+      </c>
+      <c r="E551" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F551" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="H551" t="n">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>560</v>
+      </c>
+      <c r="B552" t="s">
+        <v>547</v>
+      </c>
+      <c r="C552" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D552" t="n">
+        <v>1.647941381E9</v>
+      </c>
+      <c r="E552" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F552" t="s">
+        <v>10</v>
+      </c>
+      <c r="G552" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="H552" t="n">
+        <v>84.0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>561</v>
+      </c>
+      <c r="B553" t="s">
+        <v>547</v>
+      </c>
+      <c r="C553" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D553" t="n">
+        <v>1.647942224E9</v>
+      </c>
+      <c r="E553" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F553" t="s">
+        <v>10</v>
+      </c>
+      <c r="G553" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="H553" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>562</v>
+      </c>
+      <c r="B554" t="s">
+        <v>547</v>
+      </c>
+      <c r="C554" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D554" t="n">
+        <v>1.647943307E9</v>
+      </c>
+      <c r="E554" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F554" t="s">
+        <v>10</v>
+      </c>
+      <c r="G554" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H554" t="n">
+        <v>96.0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>563</v>
+      </c>
+      <c r="B555" t="s">
+        <v>547</v>
+      </c>
+      <c r="C555" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D555" t="n">
+        <v>1.647943608E9</v>
+      </c>
+      <c r="E555" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F555" t="s">
+        <v>10</v>
+      </c>
+      <c r="G555" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H555" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>564</v>
+      </c>
+      <c r="B556" t="s">
+        <v>547</v>
+      </c>
+      <c r="C556" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D556" t="n">
+        <v>1.64794427E9</v>
+      </c>
+      <c r="E556" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F556" t="s">
+        <v>10</v>
+      </c>
+      <c r="G556" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H556" t="n">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>565</v>
+      </c>
+      <c r="B557" t="s">
+        <v>547</v>
+      </c>
+      <c r="C557" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D557" t="n">
+        <v>1.647944412E9</v>
+      </c>
+      <c r="E557" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F557" t="s">
+        <v>10</v>
+      </c>
+      <c r="G557" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="H557" t="n">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>566</v>
+      </c>
+      <c r="B558" t="s">
+        <v>547</v>
+      </c>
+      <c r="C558" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D558" t="n">
+        <v>1.647944631E9</v>
+      </c>
+      <c r="E558" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F558" t="s">
+        <v>10</v>
+      </c>
+      <c r="G558" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="H558" t="n">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>567</v>
+      </c>
+      <c r="B559" t="s">
+        <v>547</v>
+      </c>
+      <c r="C559" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D559" t="n">
+        <v>1.647946494E9</v>
+      </c>
+      <c r="E559" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F559" t="s">
+        <v>10</v>
+      </c>
+      <c r="G559" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="H559" t="n">
+        <v>108.0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>568</v>
+      </c>
+      <c r="B560" t="s">
+        <v>547</v>
+      </c>
+      <c r="C560" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D560" t="n">
+        <v>1.647946795E9</v>
+      </c>
+      <c r="E560" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F560" t="s">
+        <v>10</v>
+      </c>
+      <c r="G560" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="H560" t="n">
+        <v>111.0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>569</v>
+      </c>
+      <c r="B561" t="s">
+        <v>547</v>
+      </c>
+      <c r="C561" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D561" t="n">
+        <v>1.647949259E9</v>
+      </c>
+      <c r="E561" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F561" t="s">
+        <v>10</v>
+      </c>
+      <c r="G561" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="H561" t="n">
+        <v>114.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>570</v>
+      </c>
+      <c r="B562" t="s">
+        <v>547</v>
+      </c>
+      <c r="C562" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D562" t="n">
+        <v>1.647949439E9</v>
+      </c>
+      <c r="E562" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F562" t="s">
+        <v>10</v>
+      </c>
+      <c r="G562" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="H562" t="n">
+        <v>117.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8706.xlsx
+++ b/data/sheet/msg_8706.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="602">
   <si>
     <t/>
   </si>
@@ -1734,6 +1734,99 @@
   </si>
   <si>
     <t>2022-03-22 12:43:57</t>
+  </si>
+  <si>
+    <t>2022-03-22 13:10:01</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:21:31</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:21:52</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:22:52</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:23:53</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:24:53</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:25:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:26:53</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:27:53</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:28:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:29:53</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:30:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:31:55</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:32:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:33:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:34:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:35:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:36:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:37:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:38:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:39:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:40:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:41:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:42:55</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:43:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:44:54</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:45:55</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:46:55</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:47:55</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:48:55</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:49:55</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16710,6 +16803,812 @@
         <v>117.0</v>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>571</v>
+      </c>
+      <c r="B563" t="s">
+        <v>547</v>
+      </c>
+      <c r="C563" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D563" t="n">
+        <v>1.647951003E9</v>
+      </c>
+      <c r="E563" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F563" t="s">
+        <v>10</v>
+      </c>
+      <c r="G563" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="H563" t="n">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>572</v>
+      </c>
+      <c r="B564" t="s">
+        <v>547</v>
+      </c>
+      <c r="C564" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D564" t="n">
+        <v>1.647976895E9</v>
+      </c>
+      <c r="E564" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F564" t="s">
+        <v>10</v>
+      </c>
+      <c r="G564" t="n">
+        <v>-59562.0</v>
+      </c>
+      <c r="H564" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>573</v>
+      </c>
+      <c r="B565" t="s">
+        <v>547</v>
+      </c>
+      <c r="C565" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D565" t="n">
+        <v>1.647976916E9</v>
+      </c>
+      <c r="E565" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F565" t="s">
+        <v>10</v>
+      </c>
+      <c r="G565" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="H565" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>574</v>
+      </c>
+      <c r="B566" t="s">
+        <v>547</v>
+      </c>
+      <c r="C566" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D566" t="n">
+        <v>1.647976976E9</v>
+      </c>
+      <c r="E566" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F566" t="s">
+        <v>10</v>
+      </c>
+      <c r="G566" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="H566" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>575</v>
+      </c>
+      <c r="B567" t="s">
+        <v>547</v>
+      </c>
+      <c r="C567" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D567" t="n">
+        <v>1.647977037E9</v>
+      </c>
+      <c r="E567" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F567" t="s">
+        <v>10</v>
+      </c>
+      <c r="G567" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="H567" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>576</v>
+      </c>
+      <c r="B568" t="s">
+        <v>547</v>
+      </c>
+      <c r="C568" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D568" t="n">
+        <v>1.647977097E9</v>
+      </c>
+      <c r="E568" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F568" t="s">
+        <v>10</v>
+      </c>
+      <c r="G568" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="H568" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>577</v>
+      </c>
+      <c r="B569" t="s">
+        <v>547</v>
+      </c>
+      <c r="C569" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D569" t="n">
+        <v>1.647977158E9</v>
+      </c>
+      <c r="E569" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F569" t="s">
+        <v>10</v>
+      </c>
+      <c r="G569" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="H569" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>578</v>
+      </c>
+      <c r="B570" t="s">
+        <v>547</v>
+      </c>
+      <c r="C570" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D570" t="n">
+        <v>1.647977217E9</v>
+      </c>
+      <c r="E570" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F570" t="s">
+        <v>10</v>
+      </c>
+      <c r="G570" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="H570" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>579</v>
+      </c>
+      <c r="B571" t="s">
+        <v>547</v>
+      </c>
+      <c r="C571" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D571" t="n">
+        <v>1.647977277E9</v>
+      </c>
+      <c r="E571" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F571" t="s">
+        <v>10</v>
+      </c>
+      <c r="G571" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="H571" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>580</v>
+      </c>
+      <c r="B572" t="s">
+        <v>547</v>
+      </c>
+      <c r="C572" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D572" t="n">
+        <v>1.647977338E9</v>
+      </c>
+      <c r="E572" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F572" t="s">
+        <v>10</v>
+      </c>
+      <c r="G572" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="H572" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>581</v>
+      </c>
+      <c r="B573" t="s">
+        <v>547</v>
+      </c>
+      <c r="C573" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D573" t="n">
+        <v>1.647977397E9</v>
+      </c>
+      <c r="E573" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F573" t="s">
+        <v>10</v>
+      </c>
+      <c r="G573" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="H573" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>582</v>
+      </c>
+      <c r="B574" t="s">
+        <v>547</v>
+      </c>
+      <c r="C574" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D574" t="n">
+        <v>1.647977458E9</v>
+      </c>
+      <c r="E574" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F574" t="s">
+        <v>10</v>
+      </c>
+      <c r="G574" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="H574" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>583</v>
+      </c>
+      <c r="B575" t="s">
+        <v>547</v>
+      </c>
+      <c r="C575" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D575" t="n">
+        <v>1.647977519E9</v>
+      </c>
+      <c r="E575" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F575" t="s">
+        <v>10</v>
+      </c>
+      <c r="G575" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="H575" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>584</v>
+      </c>
+      <c r="B576" t="s">
+        <v>547</v>
+      </c>
+      <c r="C576" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D576" t="n">
+        <v>1.647977578E9</v>
+      </c>
+      <c r="E576" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F576" t="s">
+        <v>10</v>
+      </c>
+      <c r="G576" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H576" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>585</v>
+      </c>
+      <c r="B577" t="s">
+        <v>547</v>
+      </c>
+      <c r="C577" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D577" t="n">
+        <v>1.647977638E9</v>
+      </c>
+      <c r="E577" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F577" t="s">
+        <v>10</v>
+      </c>
+      <c r="G577" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="H577" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>586</v>
+      </c>
+      <c r="B578" t="s">
+        <v>547</v>
+      </c>
+      <c r="C578" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D578" t="n">
+        <v>1.647977698E9</v>
+      </c>
+      <c r="E578" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F578" t="s">
+        <v>10</v>
+      </c>
+      <c r="G578" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H578" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>587</v>
+      </c>
+      <c r="B579" t="s">
+        <v>547</v>
+      </c>
+      <c r="C579" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D579" t="n">
+        <v>1.647977758E9</v>
+      </c>
+      <c r="E579" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F579" t="s">
+        <v>10</v>
+      </c>
+      <c r="G579" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="H579" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>588</v>
+      </c>
+      <c r="B580" t="s">
+        <v>547</v>
+      </c>
+      <c r="C580" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D580" t="n">
+        <v>1.647977818E9</v>
+      </c>
+      <c r="E580" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F580" t="s">
+        <v>10</v>
+      </c>
+      <c r="G580" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="H580" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>589</v>
+      </c>
+      <c r="B581" t="s">
+        <v>547</v>
+      </c>
+      <c r="C581" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D581" t="n">
+        <v>1.647977878E9</v>
+      </c>
+      <c r="E581" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F581" t="s">
+        <v>10</v>
+      </c>
+      <c r="G581" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H581" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>590</v>
+      </c>
+      <c r="B582" t="s">
+        <v>547</v>
+      </c>
+      <c r="C582" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D582" t="n">
+        <v>1.647977938E9</v>
+      </c>
+      <c r="E582" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F582" t="s">
+        <v>10</v>
+      </c>
+      <c r="G582" t="n">
+        <v>296.0</v>
+      </c>
+      <c r="H582" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>591</v>
+      </c>
+      <c r="B583" t="s">
+        <v>547</v>
+      </c>
+      <c r="C583" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D583" t="n">
+        <v>1.647977998E9</v>
+      </c>
+      <c r="E583" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F583" t="s">
+        <v>10</v>
+      </c>
+      <c r="G583" t="n">
+        <v>291.0</v>
+      </c>
+      <c r="H583" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>592</v>
+      </c>
+      <c r="B584" t="s">
+        <v>547</v>
+      </c>
+      <c r="C584" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D584" t="n">
+        <v>1.647978058E9</v>
+      </c>
+      <c r="E584" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F584" t="s">
+        <v>10</v>
+      </c>
+      <c r="G584" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="H584" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>593</v>
+      </c>
+      <c r="B585" t="s">
+        <v>547</v>
+      </c>
+      <c r="C585" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D585" t="n">
+        <v>1.647978118E9</v>
+      </c>
+      <c r="E585" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F585" t="s">
+        <v>10</v>
+      </c>
+      <c r="G585" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="H585" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>594</v>
+      </c>
+      <c r="B586" t="s">
+        <v>547</v>
+      </c>
+      <c r="C586" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D586" t="n">
+        <v>1.647978179E9</v>
+      </c>
+      <c r="E586" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F586" t="s">
+        <v>10</v>
+      </c>
+      <c r="G586" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="H586" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>595</v>
+      </c>
+      <c r="B587" t="s">
+        <v>547</v>
+      </c>
+      <c r="C587" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D587" t="n">
+        <v>1.647978238E9</v>
+      </c>
+      <c r="E587" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F587" t="s">
+        <v>10</v>
+      </c>
+      <c r="G587" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="H587" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>596</v>
+      </c>
+      <c r="B588" t="s">
+        <v>547</v>
+      </c>
+      <c r="C588" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1.647978298E9</v>
+      </c>
+      <c r="E588" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F588" t="s">
+        <v>10</v>
+      </c>
+      <c r="G588" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H588" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>597</v>
+      </c>
+      <c r="B589" t="s">
+        <v>547</v>
+      </c>
+      <c r="C589" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D589" t="n">
+        <v>1.647978359E9</v>
+      </c>
+      <c r="E589" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F589" t="s">
+        <v>10</v>
+      </c>
+      <c r="G589" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="H589" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>598</v>
+      </c>
+      <c r="B590" t="s">
+        <v>547</v>
+      </c>
+      <c r="C590" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D590" t="n">
+        <v>1.647978419E9</v>
+      </c>
+      <c r="E590" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F590" t="s">
+        <v>10</v>
+      </c>
+      <c r="G590" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="H590" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>599</v>
+      </c>
+      <c r="B591" t="s">
+        <v>547</v>
+      </c>
+      <c r="C591" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D591" t="n">
+        <v>1.647978479E9</v>
+      </c>
+      <c r="E591" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F591" t="s">
+        <v>10</v>
+      </c>
+      <c r="G591" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="H591" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>600</v>
+      </c>
+      <c r="B592" t="s">
+        <v>547</v>
+      </c>
+      <c r="C592" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D592" t="n">
+        <v>1.647978539E9</v>
+      </c>
+      <c r="E592" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F592" t="s">
+        <v>10</v>
+      </c>
+      <c r="G592" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="H592" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>601</v>
+      </c>
+      <c r="B593" t="s">
+        <v>547</v>
+      </c>
+      <c r="C593" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D593" t="n">
+        <v>1.647978599E9</v>
+      </c>
+      <c r="E593" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F593" t="s">
+        <v>10</v>
+      </c>
+      <c r="G593" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="H593" t="n">
+        <v>165.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8706.xlsx
+++ b/data/sheet/msg_8706.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="646">
   <si>
     <t/>
   </si>
@@ -1827,6 +1827,138 @@
   </si>
   <si>
     <t>2022-03-22 20:49:55</t>
+  </si>
+  <si>
+    <t>2022-03-25 13:47:48</t>
+  </si>
+  <si>
+    <t>2022-03-25 14:00:50</t>
+  </si>
+  <si>
+    <t>2022-03-25 14:04:52</t>
+  </si>
+  <si>
+    <t>2022-03-25 14:13:55</t>
+  </si>
+  <si>
+    <t>2022-06-09 13:48:07</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:48:28</t>
+  </si>
+  <si>
+    <t>2022-06-09 19:06:44</t>
+  </si>
+  <si>
+    <t>2022-06-09 22:55:57</t>
+  </si>
+  <si>
+    <t>2022-06-09 22:56:17</t>
+  </si>
+  <si>
+    <t>2022-06-09 22:57:20</t>
+  </si>
+  <si>
+    <t>2022-06-09 22:58:17</t>
+  </si>
+  <si>
+    <t>2022-06-09 22:59:20</t>
+  </si>
+  <si>
+    <t>2022-06-10 09:18:11</t>
+  </si>
+  <si>
+    <t>2022-06-10 10:14:38</t>
+  </si>
+  <si>
+    <t>2022-06-10 13:52:02</t>
+  </si>
+  <si>
+    <t>2022-06-10 14:48:29</t>
+  </si>
+  <si>
+    <t>2022-06-10 15:04:30</t>
+  </si>
+  <si>
+    <t>2022-06-10 16:30:16</t>
+  </si>
+  <si>
+    <t>2022-06-10 18:50:26</t>
+  </si>
+  <si>
+    <t>2022-06-10 18:56:26</t>
+  </si>
+  <si>
+    <t>2022-06-10 18:56:56</t>
+  </si>
+  <si>
+    <t>2022-06-10 18:57:26</t>
+  </si>
+  <si>
+    <t>2022-06-10 18:58:06</t>
+  </si>
+  <si>
+    <t>2022-06-10 18:58:36</t>
+  </si>
+  <si>
+    <t>2022-06-11 08:02:11</t>
+  </si>
+  <si>
+    <t>2022-06-11 08:35:35</t>
+  </si>
+  <si>
+    <t>2022-06-11 09:07:37</t>
+  </si>
+  <si>
+    <t>2022-06-24 12:59:38</t>
+  </si>
+  <si>
+    <t>2022-06-24 13:06:01</t>
+  </si>
+  <si>
+    <t>2022-06-24 18:39:29</t>
+  </si>
+  <si>
+    <t>2022-06-25 00:36:26</t>
+  </si>
+  <si>
+    <t>2022-06-25 00:36:46</t>
+  </si>
+  <si>
+    <t>2022-06-25 00:37:46</t>
+  </si>
+  <si>
+    <t>2022-06-25 00:38:46</t>
+  </si>
+  <si>
+    <t>2022-06-25 06:32:07</t>
+  </si>
+  <si>
+    <t>2022-06-25 06:40:29</t>
+  </si>
+  <si>
+    <t>2022-06-25 06:40:59</t>
+  </si>
+  <si>
+    <t>2022-06-25 11:08:34</t>
+  </si>
+  <si>
+    <t>2022-06-25 11:26:57</t>
+  </si>
+  <si>
+    <t>2022-06-25 11:54:00</t>
+  </si>
+  <si>
+    <t>2022-06-25 12:55:06</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:36:24</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:16:31</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:40:34</t>
   </si>
 </sst>
 </file>
@@ -2179,7 +2311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H593"/>
+  <dimension ref="A1:H637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17609,6 +17741,1150 @@
         <v>165.0</v>
       </c>
     </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>602</v>
+      </c>
+      <c r="B594" t="s">
+        <v>547</v>
+      </c>
+      <c r="C594" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D594" t="n">
+        <v>1.64821247E9</v>
+      </c>
+      <c r="E594" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="F594" t="s">
+        <v>10</v>
+      </c>
+      <c r="G594" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="H594" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>603</v>
+      </c>
+      <c r="B595" t="s">
+        <v>547</v>
+      </c>
+      <c r="C595" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D595" t="n">
+        <v>1.648213252E9</v>
+      </c>
+      <c r="E595" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F595" t="s">
+        <v>10</v>
+      </c>
+      <c r="G595" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H595" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>604</v>
+      </c>
+      <c r="B596" t="s">
+        <v>547</v>
+      </c>
+      <c r="C596" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D596" t="n">
+        <v>1.648213494E9</v>
+      </c>
+      <c r="E596" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F596" t="s">
+        <v>10</v>
+      </c>
+      <c r="G596" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="H596" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>605</v>
+      </c>
+      <c r="B597" t="s">
+        <v>547</v>
+      </c>
+      <c r="C597" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D597" t="n">
+        <v>1.648214037E9</v>
+      </c>
+      <c r="E597" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F597" t="s">
+        <v>10</v>
+      </c>
+      <c r="G597" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="H597" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>606</v>
+      </c>
+      <c r="B598" t="s">
+        <v>547</v>
+      </c>
+      <c r="C598" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D598" t="n">
+        <v>1.654775301E9</v>
+      </c>
+      <c r="E598" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F598" t="s">
+        <v>10</v>
+      </c>
+      <c r="G598" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="H598" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>607</v>
+      </c>
+      <c r="B599" t="s">
+        <v>547</v>
+      </c>
+      <c r="C599" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D599" t="n">
+        <v>1.654786123E9</v>
+      </c>
+      <c r="E599" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F599" t="s">
+        <v>10</v>
+      </c>
+      <c r="G599" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H599" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>608</v>
+      </c>
+      <c r="B600" t="s">
+        <v>547</v>
+      </c>
+      <c r="C600" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D600" t="n">
+        <v>1.654794418E9</v>
+      </c>
+      <c r="E600" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F600" t="s">
+        <v>10</v>
+      </c>
+      <c r="G600" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="H600" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>609</v>
+      </c>
+      <c r="B601" t="s">
+        <v>547</v>
+      </c>
+      <c r="C601" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D601" t="n">
+        <v>1.654808172E9</v>
+      </c>
+      <c r="E601" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F601" t="s">
+        <v>10</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-57255.0</v>
+      </c>
+      <c r="H601" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>610</v>
+      </c>
+      <c r="B602" t="s">
+        <v>547</v>
+      </c>
+      <c r="C602" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D602" t="n">
+        <v>1.654808193E9</v>
+      </c>
+      <c r="E602" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F602" t="s">
+        <v>10</v>
+      </c>
+      <c r="G602" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="H602" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>611</v>
+      </c>
+      <c r="B603" t="s">
+        <v>547</v>
+      </c>
+      <c r="C603" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D603" t="n">
+        <v>1.654808255E9</v>
+      </c>
+      <c r="E603" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F603" t="s">
+        <v>10</v>
+      </c>
+      <c r="G603" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="H603" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>612</v>
+      </c>
+      <c r="B604" t="s">
+        <v>547</v>
+      </c>
+      <c r="C604" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D604" t="n">
+        <v>1.654808313E9</v>
+      </c>
+      <c r="E604" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F604" t="s">
+        <v>10</v>
+      </c>
+      <c r="G604" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="H604" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>613</v>
+      </c>
+      <c r="B605" t="s">
+        <v>547</v>
+      </c>
+      <c r="C605" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D605" t="n">
+        <v>1.654808375E9</v>
+      </c>
+      <c r="E605" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F605" t="s">
+        <v>10</v>
+      </c>
+      <c r="G605" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="H605" t="n">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>614</v>
+      </c>
+      <c r="B606" t="s">
+        <v>547</v>
+      </c>
+      <c r="C606" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D606" t="n">
+        <v>1.654845491E9</v>
+      </c>
+      <c r="E606" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F606" t="s">
+        <v>10</v>
+      </c>
+      <c r="G606" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="H606" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>615</v>
+      </c>
+      <c r="B607" t="s">
+        <v>547</v>
+      </c>
+      <c r="C607" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D607" t="n">
+        <v>1.654848878E9</v>
+      </c>
+      <c r="E607" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F607" t="s">
+        <v>10</v>
+      </c>
+      <c r="G607" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="H607" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>616</v>
+      </c>
+      <c r="B608" t="s">
+        <v>547</v>
+      </c>
+      <c r="C608" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D608" t="n">
+        <v>1.654861924E9</v>
+      </c>
+      <c r="E608" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F608" t="s">
+        <v>10</v>
+      </c>
+      <c r="G608" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="H608" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>617</v>
+      </c>
+      <c r="B609" t="s">
+        <v>547</v>
+      </c>
+      <c r="C609" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D609" t="n">
+        <v>1.65486531E9</v>
+      </c>
+      <c r="E609" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F609" t="s">
+        <v>10</v>
+      </c>
+      <c r="G609" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="H609" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>618</v>
+      </c>
+      <c r="B610" t="s">
+        <v>547</v>
+      </c>
+      <c r="C610" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D610" t="n">
+        <v>1.654866272E9</v>
+      </c>
+      <c r="E610" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F610" t="s">
+        <v>10</v>
+      </c>
+      <c r="G610" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="H610" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>619</v>
+      </c>
+      <c r="B611" t="s">
+        <v>547</v>
+      </c>
+      <c r="C611" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D611" t="n">
+        <v>1.654871418E9</v>
+      </c>
+      <c r="E611" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F611" t="s">
+        <v>10</v>
+      </c>
+      <c r="G611" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="H611" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>620</v>
+      </c>
+      <c r="B612" t="s">
+        <v>547</v>
+      </c>
+      <c r="C612" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D612" t="n">
+        <v>1.654879828E9</v>
+      </c>
+      <c r="E612" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F612" t="s">
+        <v>10</v>
+      </c>
+      <c r="G612" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="H612" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>621</v>
+      </c>
+      <c r="B613" t="s">
+        <v>547</v>
+      </c>
+      <c r="C613" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D613" t="n">
+        <v>1.654880189E9</v>
+      </c>
+      <c r="E613" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F613" t="s">
+        <v>10</v>
+      </c>
+      <c r="G613" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="H613" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>622</v>
+      </c>
+      <c r="B614" t="s">
+        <v>547</v>
+      </c>
+      <c r="C614" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1.654880189E9</v>
+      </c>
+      <c r="E614" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F614" t="s">
+        <v>10</v>
+      </c>
+      <c r="G614" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="H614" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>623</v>
+      </c>
+      <c r="B615" t="s">
+        <v>547</v>
+      </c>
+      <c r="C615" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1.654880189E9</v>
+      </c>
+      <c r="E615" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="F615" t="s">
+        <v>10</v>
+      </c>
+      <c r="G615" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="H615" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>624</v>
+      </c>
+      <c r="B616" t="s">
+        <v>547</v>
+      </c>
+      <c r="C616" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1.654880289E9</v>
+      </c>
+      <c r="E616" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F616" t="s">
+        <v>10</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-360292.0</v>
+      </c>
+      <c r="H616" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>625</v>
+      </c>
+      <c r="B617" t="s">
+        <v>547</v>
+      </c>
+      <c r="C617" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1.654880289E9</v>
+      </c>
+      <c r="E617" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F617" t="s">
+        <v>10</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-360292.0</v>
+      </c>
+      <c r="H617" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>626</v>
+      </c>
+      <c r="B618" t="s">
+        <v>547</v>
+      </c>
+      <c r="C618" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1.654927337E9</v>
+      </c>
+      <c r="E618" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F618" t="s">
+        <v>10</v>
+      </c>
+      <c r="G618" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="H618" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>627</v>
+      </c>
+      <c r="B619" t="s">
+        <v>547</v>
+      </c>
+      <c r="C619" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1.65492934E9</v>
+      </c>
+      <c r="E619" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F619" t="s">
+        <v>10</v>
+      </c>
+      <c r="G619" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="H619" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>628</v>
+      </c>
+      <c r="B620" t="s">
+        <v>547</v>
+      </c>
+      <c r="C620" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1.654931263E9</v>
+      </c>
+      <c r="E620" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F620" t="s">
+        <v>10</v>
+      </c>
+      <c r="G620" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="H620" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>629</v>
+      </c>
+      <c r="B621" t="s">
+        <v>547</v>
+      </c>
+      <c r="C621" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1.656068379E9</v>
+      </c>
+      <c r="E621" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F621" t="s">
+        <v>10</v>
+      </c>
+      <c r="G621" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="H621" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>630</v>
+      </c>
+      <c r="B622" t="s">
+        <v>547</v>
+      </c>
+      <c r="C622" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1.656068761E9</v>
+      </c>
+      <c r="E622" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F622" t="s">
+        <v>10</v>
+      </c>
+      <c r="G622" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="H622" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>631</v>
+      </c>
+      <c r="B623" t="s">
+        <v>547</v>
+      </c>
+      <c r="C623" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1.656088771E9</v>
+      </c>
+      <c r="E623" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F623" t="s">
+        <v>10</v>
+      </c>
+      <c r="G623" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="H623" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>632</v>
+      </c>
+      <c r="B624" t="s">
+        <v>547</v>
+      </c>
+      <c r="C624" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1.656110189E9</v>
+      </c>
+      <c r="E624" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F624" t="s">
+        <v>10</v>
+      </c>
+      <c r="G624" t="n">
+        <v>-59843.0</v>
+      </c>
+      <c r="H624" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>633</v>
+      </c>
+      <c r="B625" t="s">
+        <v>547</v>
+      </c>
+      <c r="C625" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1.65611021E9</v>
+      </c>
+      <c r="E625" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F625" t="s">
+        <v>10</v>
+      </c>
+      <c r="G625" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="H625" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>634</v>
+      </c>
+      <c r="B626" t="s">
+        <v>547</v>
+      </c>
+      <c r="C626" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1.65611027E9</v>
+      </c>
+      <c r="E626" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F626" t="s">
+        <v>10</v>
+      </c>
+      <c r="G626" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="H626" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>635</v>
+      </c>
+      <c r="B627" t="s">
+        <v>547</v>
+      </c>
+      <c r="C627" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1.65611033E9</v>
+      </c>
+      <c r="E627" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F627" t="s">
+        <v>10</v>
+      </c>
+      <c r="G627" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="H627" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>636</v>
+      </c>
+      <c r="B628" t="s">
+        <v>547</v>
+      </c>
+      <c r="C628" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1.656131526E9</v>
+      </c>
+      <c r="E628" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F628" t="s">
+        <v>10</v>
+      </c>
+      <c r="G628" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="H628" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>637</v>
+      </c>
+      <c r="B629" t="s">
+        <v>547</v>
+      </c>
+      <c r="C629" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1.656132028E9</v>
+      </c>
+      <c r="E629" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F629" t="s">
+        <v>10</v>
+      </c>
+      <c r="G629" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="H629" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>638</v>
+      </c>
+      <c r="B630" t="s">
+        <v>547</v>
+      </c>
+      <c r="C630" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1.656132028E9</v>
+      </c>
+      <c r="E630" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F630" t="s">
+        <v>10</v>
+      </c>
+      <c r="G630" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="H630" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>639</v>
+      </c>
+      <c r="B631" t="s">
+        <v>547</v>
+      </c>
+      <c r="C631" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1.656148113E9</v>
+      </c>
+      <c r="E631" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F631" t="s">
+        <v>10</v>
+      </c>
+      <c r="G631" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="H631" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>640</v>
+      </c>
+      <c r="B632" t="s">
+        <v>547</v>
+      </c>
+      <c r="C632" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1.656149216E9</v>
+      </c>
+      <c r="E632" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F632" t="s">
+        <v>10</v>
+      </c>
+      <c r="G632" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="H632" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>641</v>
+      </c>
+      <c r="B633" t="s">
+        <v>547</v>
+      </c>
+      <c r="C633" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1.656150839E9</v>
+      </c>
+      <c r="E633" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F633" t="s">
+        <v>10</v>
+      </c>
+      <c r="G633" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="H633" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>642</v>
+      </c>
+      <c r="B634" t="s">
+        <v>547</v>
+      </c>
+      <c r="C634" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1.656154506E9</v>
+      </c>
+      <c r="E634" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F634" t="s">
+        <v>10</v>
+      </c>
+      <c r="G634" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="H634" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>643</v>
+      </c>
+      <c r="B635" t="s">
+        <v>547</v>
+      </c>
+      <c r="C635" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1.656686192E9</v>
+      </c>
+      <c r="E635" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F635" t="s">
+        <v>10</v>
+      </c>
+      <c r="G635" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="H635" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>644</v>
+      </c>
+      <c r="B636" t="s">
+        <v>547</v>
+      </c>
+      <c r="C636" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1.6566886E9</v>
+      </c>
+      <c r="E636" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F636" t="s">
+        <v>10</v>
+      </c>
+      <c r="G636" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="H636" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>645</v>
+      </c>
+      <c r="B637" t="s">
+        <v>547</v>
+      </c>
+      <c r="C637" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1.656690043E9</v>
+      </c>
+      <c r="E637" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F637" t="s">
+        <v>10</v>
+      </c>
+      <c r="G637" t="n">
+        <v>936.0</v>
+      </c>
+      <c r="H637" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8706.xlsx
+++ b/data/sheet/msg_8706.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="923">
   <si>
     <t/>
   </si>
@@ -1959,6 +1959,837 @@
   </si>
   <si>
     <t>2022-07-01 17:40:34</t>
+  </si>
+  <si>
+    <t>2022-07-02 13:57:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 16:47:43</t>
+  </si>
+  <si>
+    <t>2022-07-02 17:35:48</t>
+  </si>
+  <si>
+    <t>2022-07-02 19:23:57</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:35:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:35:36</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:36:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:37:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:38:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:39:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:40:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:41:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:42:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:43:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:44:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:45:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:46:06</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:47:07</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:48:07</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:49:07</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:50:07</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:51:07</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:52:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:53:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:54:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:55:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:56:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:57:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:58:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 21:59:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:00:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:01:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:02:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:03:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:04:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:05:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:06:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:07:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:08:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:09:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:10:08</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:11:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:12:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:13:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:13:39</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:14:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:15:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:16:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:17:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:18:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:19:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:20:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:21:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:22:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:23:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:24:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:25:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:26:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:27:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:28:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:29:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:30:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:31:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:32:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:33:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:34:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:35:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:36:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:37:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:38:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:39:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:40:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:41:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:42:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:43:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:44:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:45:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:46:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:47:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:48:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:49:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:50:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:51:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:52:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:53:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:54:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:55:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:56:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:57:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:58:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 22:59:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:00:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:01:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:02:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:03:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:04:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:05:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:06:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:07:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:08:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:09:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:10:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:11:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:12:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:13:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:14:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:15:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:16:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:17:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:18:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:19:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:20:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:21:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:22:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:23:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:24:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:25:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:26:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:27:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:28:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:29:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:30:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:31:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:32:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:33:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:34:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:35:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:36:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:37:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:38:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:39:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:40:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:41:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:42:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:43:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:44:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:45:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:46:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:46:39</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:47:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:48:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:49:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:50:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:51:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:52:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:53:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:54:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:55:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:56:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:57:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:58:09</t>
+  </si>
+  <si>
+    <t>2022-07-02 23:59:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:00:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:01:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:02:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:03:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:04:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:05:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:06:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:07:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:07:39</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:08:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:09:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:10:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:11:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:12:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:13:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:14:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:15:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:16:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:17:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:18:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:19:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:20:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:21:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:22:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:23:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:24:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:25:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:26:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:27:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:28:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:29:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:30:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:31:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:32:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:33:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:34:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:35:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:36:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:37:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:38:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:39:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:40:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:41:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:42:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:43:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:44:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:45:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:46:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:47:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:48:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:49:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:50:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:51:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:52:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:53:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:54:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:55:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:56:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:57:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:58:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 00:59:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:00:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:01:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:02:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:03:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:04:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:05:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:06:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:07:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:08:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:09:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:10:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:11:10</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:12:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:13:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:14:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:15:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:16:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:17:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:18:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:19:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:20:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:21:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:22:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:23:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:24:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:25:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:26:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:27:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:28:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:29:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:30:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:31:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:32:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:33:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:34:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:35:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:36:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:37:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:38:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:39:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:40:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:41:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:42:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:43:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:44:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:45:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:46:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:47:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:48:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:49:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:50:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:51:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:52:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:53:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:54:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:55:10</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:56:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:57:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:58:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 01:59:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 02:00:09</t>
+  </si>
+  <si>
+    <t>2022-07-03 05:03:00</t>
+  </si>
+  <si>
+    <t>2022-07-03 05:03:01</t>
+  </si>
+  <si>
+    <t>2022-07-03 08:21:19</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +3142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H637"/>
+  <dimension ref="A1:H916"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18885,6 +19716,7260 @@
         <v>31.0</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>646</v>
+      </c>
+      <c r="B638" t="s">
+        <v>547</v>
+      </c>
+      <c r="C638" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1.656763028E9</v>
+      </c>
+      <c r="E638" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F638" t="s">
+        <v>10</v>
+      </c>
+      <c r="G638" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="H638" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>647</v>
+      </c>
+      <c r="B639" t="s">
+        <v>547</v>
+      </c>
+      <c r="C639" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1.656773263E9</v>
+      </c>
+      <c r="E639" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F639" t="s">
+        <v>10</v>
+      </c>
+      <c r="G639" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H639" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>648</v>
+      </c>
+      <c r="B640" t="s">
+        <v>547</v>
+      </c>
+      <c r="C640" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1.656776149E9</v>
+      </c>
+      <c r="E640" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F640" t="s">
+        <v>10</v>
+      </c>
+      <c r="G640" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="H640" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>649</v>
+      </c>
+      <c r="B641" t="s">
+        <v>547</v>
+      </c>
+      <c r="C641" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1.656782637E9</v>
+      </c>
+      <c r="E641" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F641" t="s">
+        <v>10</v>
+      </c>
+      <c r="G641" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="H641" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>650</v>
+      </c>
+      <c r="B642" t="s">
+        <v>547</v>
+      </c>
+      <c r="C642" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1.656790509E9</v>
+      </c>
+      <c r="E642" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F642" t="s">
+        <v>10</v>
+      </c>
+      <c r="G642" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="H642" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>651</v>
+      </c>
+      <c r="B643" t="s">
+        <v>547</v>
+      </c>
+      <c r="C643" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1.656790509E9</v>
+      </c>
+      <c r="E643" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F643" t="s">
+        <v>10</v>
+      </c>
+      <c r="G643" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="H643" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>652</v>
+      </c>
+      <c r="B644" t="s">
+        <v>547</v>
+      </c>
+      <c r="C644" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1.656790569E9</v>
+      </c>
+      <c r="E644" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F644" t="s">
+        <v>10</v>
+      </c>
+      <c r="G644" t="n">
+        <v>30221.0</v>
+      </c>
+      <c r="H644" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>653</v>
+      </c>
+      <c r="B645" t="s">
+        <v>547</v>
+      </c>
+      <c r="C645" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1.656790629E9</v>
+      </c>
+      <c r="E645" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F645" t="s">
+        <v>10</v>
+      </c>
+      <c r="G645" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H645" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>654</v>
+      </c>
+      <c r="B646" t="s">
+        <v>547</v>
+      </c>
+      <c r="C646" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1.656790689E9</v>
+      </c>
+      <c r="E646" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F646" t="s">
+        <v>10</v>
+      </c>
+      <c r="G646" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="H646" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>655</v>
+      </c>
+      <c r="B647" t="s">
+        <v>547</v>
+      </c>
+      <c r="C647" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1.656790749E9</v>
+      </c>
+      <c r="E647" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F647" t="s">
+        <v>10</v>
+      </c>
+      <c r="G647" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="H647" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>656</v>
+      </c>
+      <c r="B648" t="s">
+        <v>547</v>
+      </c>
+      <c r="C648" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1.656790809E9</v>
+      </c>
+      <c r="E648" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F648" t="s">
+        <v>10</v>
+      </c>
+      <c r="G648" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H648" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>657</v>
+      </c>
+      <c r="B649" t="s">
+        <v>547</v>
+      </c>
+      <c r="C649" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1.656790869E9</v>
+      </c>
+      <c r="E649" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F649" t="s">
+        <v>10</v>
+      </c>
+      <c r="G649" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="H649" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>658</v>
+      </c>
+      <c r="B650" t="s">
+        <v>547</v>
+      </c>
+      <c r="C650" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1.656790929E9</v>
+      </c>
+      <c r="E650" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F650" t="s">
+        <v>10</v>
+      </c>
+      <c r="G650" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="H650" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>659</v>
+      </c>
+      <c r="B651" t="s">
+        <v>547</v>
+      </c>
+      <c r="C651" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1.65679099E9</v>
+      </c>
+      <c r="E651" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F651" t="s">
+        <v>10</v>
+      </c>
+      <c r="G651" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H651" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>660</v>
+      </c>
+      <c r="B652" t="s">
+        <v>547</v>
+      </c>
+      <c r="C652" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1.65679105E9</v>
+      </c>
+      <c r="E652" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F652" t="s">
+        <v>10</v>
+      </c>
+      <c r="G652" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="H652" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>661</v>
+      </c>
+      <c r="B653" t="s">
+        <v>547</v>
+      </c>
+      <c r="C653" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1.65679111E9</v>
+      </c>
+      <c r="E653" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F653" t="s">
+        <v>10</v>
+      </c>
+      <c r="G653" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="H653" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>662</v>
+      </c>
+      <c r="B654" t="s">
+        <v>547</v>
+      </c>
+      <c r="C654" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1.65679117E9</v>
+      </c>
+      <c r="E654" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F654" t="s">
+        <v>10</v>
+      </c>
+      <c r="G654" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="H654" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>663</v>
+      </c>
+      <c r="B655" t="s">
+        <v>547</v>
+      </c>
+      <c r="C655" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1.65679123E9</v>
+      </c>
+      <c r="E655" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F655" t="s">
+        <v>10</v>
+      </c>
+      <c r="G655" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="H655" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>664</v>
+      </c>
+      <c r="B656" t="s">
+        <v>547</v>
+      </c>
+      <c r="C656" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1.65679129E9</v>
+      </c>
+      <c r="E656" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F656" t="s">
+        <v>10</v>
+      </c>
+      <c r="G656" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="H656" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>665</v>
+      </c>
+      <c r="B657" t="s">
+        <v>547</v>
+      </c>
+      <c r="C657" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1.65679135E9</v>
+      </c>
+      <c r="E657" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F657" t="s">
+        <v>10</v>
+      </c>
+      <c r="G657" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="H657" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>666</v>
+      </c>
+      <c r="B658" t="s">
+        <v>547</v>
+      </c>
+      <c r="C658" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1.65679141E9</v>
+      </c>
+      <c r="E658" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F658" t="s">
+        <v>10</v>
+      </c>
+      <c r="G658" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="H658" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>667</v>
+      </c>
+      <c r="B659" t="s">
+        <v>547</v>
+      </c>
+      <c r="C659" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1.65679147E9</v>
+      </c>
+      <c r="E659" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F659" t="s">
+        <v>10</v>
+      </c>
+      <c r="G659" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="H659" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>668</v>
+      </c>
+      <c r="B660" t="s">
+        <v>547</v>
+      </c>
+      <c r="C660" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1.656791531E9</v>
+      </c>
+      <c r="E660" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F660" t="s">
+        <v>10</v>
+      </c>
+      <c r="G660" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="H660" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>669</v>
+      </c>
+      <c r="B661" t="s">
+        <v>547</v>
+      </c>
+      <c r="C661" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1.656791592E9</v>
+      </c>
+      <c r="E661" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F661" t="s">
+        <v>10</v>
+      </c>
+      <c r="G661" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="H661" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>670</v>
+      </c>
+      <c r="B662" t="s">
+        <v>547</v>
+      </c>
+      <c r="C662" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1.656791651E9</v>
+      </c>
+      <c r="E662" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F662" t="s">
+        <v>10</v>
+      </c>
+      <c r="G662" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="H662" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>671</v>
+      </c>
+      <c r="B663" t="s">
+        <v>547</v>
+      </c>
+      <c r="C663" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1.656791711E9</v>
+      </c>
+      <c r="E663" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F663" t="s">
+        <v>10</v>
+      </c>
+      <c r="G663" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="H663" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>672</v>
+      </c>
+      <c r="B664" t="s">
+        <v>547</v>
+      </c>
+      <c r="C664" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1.656791773E9</v>
+      </c>
+      <c r="E664" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F664" t="s">
+        <v>10</v>
+      </c>
+      <c r="G664" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H664" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>673</v>
+      </c>
+      <c r="B665" t="s">
+        <v>547</v>
+      </c>
+      <c r="C665" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1.656791832E9</v>
+      </c>
+      <c r="E665" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F665" t="s">
+        <v>10</v>
+      </c>
+      <c r="G665" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="H665" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>674</v>
+      </c>
+      <c r="B666" t="s">
+        <v>547</v>
+      </c>
+      <c r="C666" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D666" t="n">
+        <v>1.656791892E9</v>
+      </c>
+      <c r="E666" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F666" t="s">
+        <v>10</v>
+      </c>
+      <c r="G666" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="H666" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>675</v>
+      </c>
+      <c r="B667" t="s">
+        <v>547</v>
+      </c>
+      <c r="C667" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D667" t="n">
+        <v>1.656791952E9</v>
+      </c>
+      <c r="E667" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F667" t="s">
+        <v>10</v>
+      </c>
+      <c r="G667" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="H667" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>676</v>
+      </c>
+      <c r="B668" t="s">
+        <v>547</v>
+      </c>
+      <c r="C668" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D668" t="n">
+        <v>1.656792012E9</v>
+      </c>
+      <c r="E668" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F668" t="s">
+        <v>10</v>
+      </c>
+      <c r="G668" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="H668" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>677</v>
+      </c>
+      <c r="B669" t="s">
+        <v>547</v>
+      </c>
+      <c r="C669" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1.656792072E9</v>
+      </c>
+      <c r="E669" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F669" t="s">
+        <v>10</v>
+      </c>
+      <c r="G669" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="H669" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>678</v>
+      </c>
+      <c r="B670" t="s">
+        <v>547</v>
+      </c>
+      <c r="C670" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1.656792132E9</v>
+      </c>
+      <c r="E670" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F670" t="s">
+        <v>10</v>
+      </c>
+      <c r="G670" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="H670" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>679</v>
+      </c>
+      <c r="B671" t="s">
+        <v>547</v>
+      </c>
+      <c r="C671" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1.656792192E9</v>
+      </c>
+      <c r="E671" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F671" t="s">
+        <v>10</v>
+      </c>
+      <c r="G671" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="H671" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>680</v>
+      </c>
+      <c r="B672" t="s">
+        <v>547</v>
+      </c>
+      <c r="C672" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1.656792252E9</v>
+      </c>
+      <c r="E672" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F672" t="s">
+        <v>10</v>
+      </c>
+      <c r="G672" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="H672" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>681</v>
+      </c>
+      <c r="B673" t="s">
+        <v>547</v>
+      </c>
+      <c r="C673" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1.656792312E9</v>
+      </c>
+      <c r="E673" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F673" t="s">
+        <v>10</v>
+      </c>
+      <c r="G673" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="H673" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>682</v>
+      </c>
+      <c r="B674" t="s">
+        <v>547</v>
+      </c>
+      <c r="C674" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1.656792372E9</v>
+      </c>
+      <c r="E674" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F674" t="s">
+        <v>10</v>
+      </c>
+      <c r="G674" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="H674" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>683</v>
+      </c>
+      <c r="B675" t="s">
+        <v>547</v>
+      </c>
+      <c r="C675" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1.656792432E9</v>
+      </c>
+      <c r="E675" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F675" t="s">
+        <v>10</v>
+      </c>
+      <c r="G675" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="H675" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>684</v>
+      </c>
+      <c r="B676" t="s">
+        <v>547</v>
+      </c>
+      <c r="C676" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D676" t="n">
+        <v>1.656792492E9</v>
+      </c>
+      <c r="E676" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F676" t="s">
+        <v>10</v>
+      </c>
+      <c r="G676" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="H676" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>685</v>
+      </c>
+      <c r="B677" t="s">
+        <v>547</v>
+      </c>
+      <c r="C677" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1.656792552E9</v>
+      </c>
+      <c r="E677" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F677" t="s">
+        <v>10</v>
+      </c>
+      <c r="G677" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="H677" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>686</v>
+      </c>
+      <c r="B678" t="s">
+        <v>547</v>
+      </c>
+      <c r="C678" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D678" t="n">
+        <v>1.656792612E9</v>
+      </c>
+      <c r="E678" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F678" t="s">
+        <v>10</v>
+      </c>
+      <c r="G678" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="H678" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>687</v>
+      </c>
+      <c r="B679" t="s">
+        <v>547</v>
+      </c>
+      <c r="C679" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D679" t="n">
+        <v>1.656792672E9</v>
+      </c>
+      <c r="E679" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F679" t="s">
+        <v>10</v>
+      </c>
+      <c r="G679" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="H679" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>688</v>
+      </c>
+      <c r="B680" t="s">
+        <v>547</v>
+      </c>
+      <c r="C680" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D680" t="n">
+        <v>1.656792732E9</v>
+      </c>
+      <c r="E680" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F680" t="s">
+        <v>10</v>
+      </c>
+      <c r="G680" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="H680" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>689</v>
+      </c>
+      <c r="B681" t="s">
+        <v>547</v>
+      </c>
+      <c r="C681" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1.656792792E9</v>
+      </c>
+      <c r="E681" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F681" t="s">
+        <v>10</v>
+      </c>
+      <c r="G681" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="H681" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>690</v>
+      </c>
+      <c r="B682" t="s">
+        <v>547</v>
+      </c>
+      <c r="C682" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D682" t="n">
+        <v>1.656792792E9</v>
+      </c>
+      <c r="E682" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F682" t="s">
+        <v>10</v>
+      </c>
+      <c r="G682" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="H682" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>691</v>
+      </c>
+      <c r="B683" t="s">
+        <v>547</v>
+      </c>
+      <c r="C683" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D683" t="n">
+        <v>1.656792852E9</v>
+      </c>
+      <c r="E683" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F683" t="s">
+        <v>10</v>
+      </c>
+      <c r="G683" t="n">
+        <v>30209.0</v>
+      </c>
+      <c r="H683" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>692</v>
+      </c>
+      <c r="B684" t="s">
+        <v>547</v>
+      </c>
+      <c r="C684" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D684" t="n">
+        <v>1.656792912E9</v>
+      </c>
+      <c r="E684" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F684" t="s">
+        <v>10</v>
+      </c>
+      <c r="G684" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="H684" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>693</v>
+      </c>
+      <c r="B685" t="s">
+        <v>547</v>
+      </c>
+      <c r="C685" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D685" t="n">
+        <v>1.656792972E9</v>
+      </c>
+      <c r="E685" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F685" t="s">
+        <v>10</v>
+      </c>
+      <c r="G685" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="H685" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>694</v>
+      </c>
+      <c r="B686" t="s">
+        <v>547</v>
+      </c>
+      <c r="C686" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D686" t="n">
+        <v>1.656793033E9</v>
+      </c>
+      <c r="E686" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F686" t="s">
+        <v>10</v>
+      </c>
+      <c r="G686" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="H686" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>695</v>
+      </c>
+      <c r="B687" t="s">
+        <v>547</v>
+      </c>
+      <c r="C687" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D687" t="n">
+        <v>1.656793093E9</v>
+      </c>
+      <c r="E687" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F687" t="s">
+        <v>10</v>
+      </c>
+      <c r="G687" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="H687" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>696</v>
+      </c>
+      <c r="B688" t="s">
+        <v>547</v>
+      </c>
+      <c r="C688" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D688" t="n">
+        <v>1.656793153E9</v>
+      </c>
+      <c r="E688" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F688" t="s">
+        <v>10</v>
+      </c>
+      <c r="G688" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="H688" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>697</v>
+      </c>
+      <c r="B689" t="s">
+        <v>547</v>
+      </c>
+      <c r="C689" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1.656793212E9</v>
+      </c>
+      <c r="E689" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F689" t="s">
+        <v>10</v>
+      </c>
+      <c r="G689" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="H689" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>698</v>
+      </c>
+      <c r="B690" t="s">
+        <v>547</v>
+      </c>
+      <c r="C690" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1.656793272E9</v>
+      </c>
+      <c r="E690" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F690" t="s">
+        <v>10</v>
+      </c>
+      <c r="G690" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="H690" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>699</v>
+      </c>
+      <c r="B691" t="s">
+        <v>547</v>
+      </c>
+      <c r="C691" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D691" t="n">
+        <v>1.656793332E9</v>
+      </c>
+      <c r="E691" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F691" t="s">
+        <v>10</v>
+      </c>
+      <c r="G691" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="H691" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>700</v>
+      </c>
+      <c r="B692" t="s">
+        <v>547</v>
+      </c>
+      <c r="C692" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D692" t="n">
+        <v>1.656793392E9</v>
+      </c>
+      <c r="E692" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F692" t="s">
+        <v>10</v>
+      </c>
+      <c r="G692" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="H692" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>701</v>
+      </c>
+      <c r="B693" t="s">
+        <v>547</v>
+      </c>
+      <c r="C693" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D693" t="n">
+        <v>1.656793452E9</v>
+      </c>
+      <c r="E693" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F693" t="s">
+        <v>10</v>
+      </c>
+      <c r="G693" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="H693" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>702</v>
+      </c>
+      <c r="B694" t="s">
+        <v>547</v>
+      </c>
+      <c r="C694" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D694" t="n">
+        <v>1.656793512E9</v>
+      </c>
+      <c r="E694" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F694" t="s">
+        <v>10</v>
+      </c>
+      <c r="G694" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="H694" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>703</v>
+      </c>
+      <c r="B695" t="s">
+        <v>547</v>
+      </c>
+      <c r="C695" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D695" t="n">
+        <v>1.656793572E9</v>
+      </c>
+      <c r="E695" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F695" t="s">
+        <v>10</v>
+      </c>
+      <c r="G695" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="H695" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>704</v>
+      </c>
+      <c r="B696" t="s">
+        <v>547</v>
+      </c>
+      <c r="C696" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D696" t="n">
+        <v>1.656793632E9</v>
+      </c>
+      <c r="E696" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F696" t="s">
+        <v>10</v>
+      </c>
+      <c r="G696" t="n">
+        <v>864.0</v>
+      </c>
+      <c r="H696" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>705</v>
+      </c>
+      <c r="B697" t="s">
+        <v>547</v>
+      </c>
+      <c r="C697" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D697" t="n">
+        <v>1.656793692E9</v>
+      </c>
+      <c r="E697" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F697" t="s">
+        <v>10</v>
+      </c>
+      <c r="G697" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="H697" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>706</v>
+      </c>
+      <c r="B698" t="s">
+        <v>547</v>
+      </c>
+      <c r="C698" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D698" t="n">
+        <v>1.656793752E9</v>
+      </c>
+      <c r="E698" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F698" t="s">
+        <v>10</v>
+      </c>
+      <c r="G698" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="H698" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>707</v>
+      </c>
+      <c r="B699" t="s">
+        <v>547</v>
+      </c>
+      <c r="C699" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D699" t="n">
+        <v>1.656793812E9</v>
+      </c>
+      <c r="E699" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F699" t="s">
+        <v>10</v>
+      </c>
+      <c r="G699" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="H699" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>708</v>
+      </c>
+      <c r="B700" t="s">
+        <v>547</v>
+      </c>
+      <c r="C700" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D700" t="n">
+        <v>1.656793872E9</v>
+      </c>
+      <c r="E700" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F700" t="s">
+        <v>10</v>
+      </c>
+      <c r="G700" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="H700" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>709</v>
+      </c>
+      <c r="B701" t="s">
+        <v>547</v>
+      </c>
+      <c r="C701" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D701" t="n">
+        <v>1.656793932E9</v>
+      </c>
+      <c r="E701" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F701" t="s">
+        <v>10</v>
+      </c>
+      <c r="G701" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="H701" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>710</v>
+      </c>
+      <c r="B702" t="s">
+        <v>547</v>
+      </c>
+      <c r="C702" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D702" t="n">
+        <v>1.656793992E9</v>
+      </c>
+      <c r="E702" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F702" t="s">
+        <v>10</v>
+      </c>
+      <c r="G702" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H702" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>711</v>
+      </c>
+      <c r="B703" t="s">
+        <v>547</v>
+      </c>
+      <c r="C703" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D703" t="n">
+        <v>1.656794052E9</v>
+      </c>
+      <c r="E703" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F703" t="s">
+        <v>10</v>
+      </c>
+      <c r="G703" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="H703" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>712</v>
+      </c>
+      <c r="B704" t="s">
+        <v>547</v>
+      </c>
+      <c r="C704" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D704" t="n">
+        <v>1.656794112E9</v>
+      </c>
+      <c r="E704" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F704" t="s">
+        <v>10</v>
+      </c>
+      <c r="G704" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="H704" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>713</v>
+      </c>
+      <c r="B705" t="s">
+        <v>547</v>
+      </c>
+      <c r="C705" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D705" t="n">
+        <v>1.656794172E9</v>
+      </c>
+      <c r="E705" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F705" t="s">
+        <v>10</v>
+      </c>
+      <c r="G705" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H705" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>714</v>
+      </c>
+      <c r="B706" t="s">
+        <v>547</v>
+      </c>
+      <c r="C706" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D706" t="n">
+        <v>1.656794232E9</v>
+      </c>
+      <c r="E706" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F706" t="s">
+        <v>10</v>
+      </c>
+      <c r="G706" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="H706" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>715</v>
+      </c>
+      <c r="B707" t="s">
+        <v>547</v>
+      </c>
+      <c r="C707" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D707" t="n">
+        <v>1.656794292E9</v>
+      </c>
+      <c r="E707" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F707" t="s">
+        <v>10</v>
+      </c>
+      <c r="G707" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="H707" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>716</v>
+      </c>
+      <c r="B708" t="s">
+        <v>547</v>
+      </c>
+      <c r="C708" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D708" t="n">
+        <v>1.656794352E9</v>
+      </c>
+      <c r="E708" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F708" t="s">
+        <v>10</v>
+      </c>
+      <c r="G708" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="H708" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>717</v>
+      </c>
+      <c r="B709" t="s">
+        <v>547</v>
+      </c>
+      <c r="C709" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D709" t="n">
+        <v>1.656794412E9</v>
+      </c>
+      <c r="E709" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F709" t="s">
+        <v>10</v>
+      </c>
+      <c r="G709" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="H709" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>718</v>
+      </c>
+      <c r="B710" t="s">
+        <v>547</v>
+      </c>
+      <c r="C710" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D710" t="n">
+        <v>1.656794472E9</v>
+      </c>
+      <c r="E710" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F710" t="s">
+        <v>10</v>
+      </c>
+      <c r="G710" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="H710" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>719</v>
+      </c>
+      <c r="B711" t="s">
+        <v>547</v>
+      </c>
+      <c r="C711" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D711" t="n">
+        <v>1.656794532E9</v>
+      </c>
+      <c r="E711" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F711" t="s">
+        <v>10</v>
+      </c>
+      <c r="G711" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="H711" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>720</v>
+      </c>
+      <c r="B712" t="s">
+        <v>547</v>
+      </c>
+      <c r="C712" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D712" t="n">
+        <v>1.656794592E9</v>
+      </c>
+      <c r="E712" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F712" t="s">
+        <v>10</v>
+      </c>
+      <c r="G712" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="H712" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>721</v>
+      </c>
+      <c r="B713" t="s">
+        <v>547</v>
+      </c>
+      <c r="C713" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D713" t="n">
+        <v>1.656794652E9</v>
+      </c>
+      <c r="E713" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F713" t="s">
+        <v>10</v>
+      </c>
+      <c r="G713" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H713" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>722</v>
+      </c>
+      <c r="B714" t="s">
+        <v>547</v>
+      </c>
+      <c r="C714" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D714" t="n">
+        <v>1.656794712E9</v>
+      </c>
+      <c r="E714" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F714" t="s">
+        <v>10</v>
+      </c>
+      <c r="G714" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="H714" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>723</v>
+      </c>
+      <c r="B715" t="s">
+        <v>547</v>
+      </c>
+      <c r="C715" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D715" t="n">
+        <v>1.656794772E9</v>
+      </c>
+      <c r="E715" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F715" t="s">
+        <v>10</v>
+      </c>
+      <c r="G715" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="H715" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>724</v>
+      </c>
+      <c r="B716" t="s">
+        <v>547</v>
+      </c>
+      <c r="C716" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D716" t="n">
+        <v>1.656794832E9</v>
+      </c>
+      <c r="E716" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F716" t="s">
+        <v>10</v>
+      </c>
+      <c r="G716" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="H716" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>725</v>
+      </c>
+      <c r="B717" t="s">
+        <v>547</v>
+      </c>
+      <c r="C717" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D717" t="n">
+        <v>1.656794892E9</v>
+      </c>
+      <c r="E717" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F717" t="s">
+        <v>10</v>
+      </c>
+      <c r="G717" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H717" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>726</v>
+      </c>
+      <c r="B718" t="s">
+        <v>547</v>
+      </c>
+      <c r="C718" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D718" t="n">
+        <v>1.656794952E9</v>
+      </c>
+      <c r="E718" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F718" t="s">
+        <v>10</v>
+      </c>
+      <c r="G718" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="H718" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>727</v>
+      </c>
+      <c r="B719" t="s">
+        <v>547</v>
+      </c>
+      <c r="C719" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D719" t="n">
+        <v>1.656795012E9</v>
+      </c>
+      <c r="E719" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F719" t="s">
+        <v>10</v>
+      </c>
+      <c r="G719" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="H719" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>728</v>
+      </c>
+      <c r="B720" t="s">
+        <v>547</v>
+      </c>
+      <c r="C720" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D720" t="n">
+        <v>1.656795072E9</v>
+      </c>
+      <c r="E720" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F720" t="s">
+        <v>10</v>
+      </c>
+      <c r="G720" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="H720" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>729</v>
+      </c>
+      <c r="B721" t="s">
+        <v>547</v>
+      </c>
+      <c r="C721" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D721" t="n">
+        <v>1.656795132E9</v>
+      </c>
+      <c r="E721" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F721" t="s">
+        <v>10</v>
+      </c>
+      <c r="G721" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="H721" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>730</v>
+      </c>
+      <c r="B722" t="s">
+        <v>547</v>
+      </c>
+      <c r="C722" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D722" t="n">
+        <v>1.656795192E9</v>
+      </c>
+      <c r="E722" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F722" t="s">
+        <v>10</v>
+      </c>
+      <c r="G722" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="H722" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>731</v>
+      </c>
+      <c r="B723" t="s">
+        <v>547</v>
+      </c>
+      <c r="C723" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D723" t="n">
+        <v>1.656795252E9</v>
+      </c>
+      <c r="E723" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F723" t="s">
+        <v>10</v>
+      </c>
+      <c r="G723" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="H723" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>732</v>
+      </c>
+      <c r="B724" t="s">
+        <v>547</v>
+      </c>
+      <c r="C724" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D724" t="n">
+        <v>1.656795312E9</v>
+      </c>
+      <c r="E724" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F724" t="s">
+        <v>10</v>
+      </c>
+      <c r="G724" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="H724" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>733</v>
+      </c>
+      <c r="B725" t="s">
+        <v>547</v>
+      </c>
+      <c r="C725" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D725" t="n">
+        <v>1.656795372E9</v>
+      </c>
+      <c r="E725" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F725" t="s">
+        <v>10</v>
+      </c>
+      <c r="G725" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="H725" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>734</v>
+      </c>
+      <c r="B726" t="s">
+        <v>547</v>
+      </c>
+      <c r="C726" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D726" t="n">
+        <v>1.656795433E9</v>
+      </c>
+      <c r="E726" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F726" t="s">
+        <v>10</v>
+      </c>
+      <c r="G726" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="H726" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>735</v>
+      </c>
+      <c r="B727" t="s">
+        <v>547</v>
+      </c>
+      <c r="C727" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D727" t="n">
+        <v>1.656795493E9</v>
+      </c>
+      <c r="E727" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F727" t="s">
+        <v>10</v>
+      </c>
+      <c r="G727" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="H727" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>736</v>
+      </c>
+      <c r="B728" t="s">
+        <v>547</v>
+      </c>
+      <c r="C728" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D728" t="n">
+        <v>1.656795553E9</v>
+      </c>
+      <c r="E728" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F728" t="s">
+        <v>10</v>
+      </c>
+      <c r="G728" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="H728" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>737</v>
+      </c>
+      <c r="B729" t="s">
+        <v>547</v>
+      </c>
+      <c r="C729" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D729" t="n">
+        <v>1.656795613E9</v>
+      </c>
+      <c r="E729" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F729" t="s">
+        <v>10</v>
+      </c>
+      <c r="G729" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H729" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>738</v>
+      </c>
+      <c r="B730" t="s">
+        <v>547</v>
+      </c>
+      <c r="C730" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D730" t="n">
+        <v>1.656795673E9</v>
+      </c>
+      <c r="E730" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F730" t="s">
+        <v>10</v>
+      </c>
+      <c r="G730" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="H730" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>739</v>
+      </c>
+      <c r="B731" t="s">
+        <v>547</v>
+      </c>
+      <c r="C731" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D731" t="n">
+        <v>1.656795732E9</v>
+      </c>
+      <c r="E731" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F731" t="s">
+        <v>10</v>
+      </c>
+      <c r="G731" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="H731" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>740</v>
+      </c>
+      <c r="B732" t="s">
+        <v>547</v>
+      </c>
+      <c r="C732" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D732" t="n">
+        <v>1.656795793E9</v>
+      </c>
+      <c r="E732" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F732" t="s">
+        <v>10</v>
+      </c>
+      <c r="G732" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="H732" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>741</v>
+      </c>
+      <c r="B733" t="s">
+        <v>547</v>
+      </c>
+      <c r="C733" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D733" t="n">
+        <v>1.656795853E9</v>
+      </c>
+      <c r="E733" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F733" t="s">
+        <v>10</v>
+      </c>
+      <c r="G733" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="H733" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>742</v>
+      </c>
+      <c r="B734" t="s">
+        <v>547</v>
+      </c>
+      <c r="C734" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D734" t="n">
+        <v>1.656795912E9</v>
+      </c>
+      <c r="E734" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F734" t="s">
+        <v>10</v>
+      </c>
+      <c r="G734" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="H734" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>743</v>
+      </c>
+      <c r="B735" t="s">
+        <v>547</v>
+      </c>
+      <c r="C735" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D735" t="n">
+        <v>1.656795972E9</v>
+      </c>
+      <c r="E735" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F735" t="s">
+        <v>10</v>
+      </c>
+      <c r="G735" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="H735" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>744</v>
+      </c>
+      <c r="B736" t="s">
+        <v>547</v>
+      </c>
+      <c r="C736" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1.656796033E9</v>
+      </c>
+      <c r="E736" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F736" t="s">
+        <v>10</v>
+      </c>
+      <c r="G736" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="H736" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>745</v>
+      </c>
+      <c r="B737" t="s">
+        <v>547</v>
+      </c>
+      <c r="C737" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D737" t="n">
+        <v>1.656796093E9</v>
+      </c>
+      <c r="E737" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F737" t="s">
+        <v>10</v>
+      </c>
+      <c r="G737" t="n">
+        <v>702.0</v>
+      </c>
+      <c r="H737" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>746</v>
+      </c>
+      <c r="B738" t="s">
+        <v>547</v>
+      </c>
+      <c r="C738" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D738" t="n">
+        <v>1.656796153E9</v>
+      </c>
+      <c r="E738" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F738" t="s">
+        <v>10</v>
+      </c>
+      <c r="G738" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="H738" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>747</v>
+      </c>
+      <c r="B739" t="s">
+        <v>547</v>
+      </c>
+      <c r="C739" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D739" t="n">
+        <v>1.656796213E9</v>
+      </c>
+      <c r="E739" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F739" t="s">
+        <v>10</v>
+      </c>
+      <c r="G739" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="H739" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>748</v>
+      </c>
+      <c r="B740" t="s">
+        <v>547</v>
+      </c>
+      <c r="C740" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D740" t="n">
+        <v>1.656796273E9</v>
+      </c>
+      <c r="E740" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F740" t="s">
+        <v>10</v>
+      </c>
+      <c r="G740" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="H740" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
+        <v>749</v>
+      </c>
+      <c r="B741" t="s">
+        <v>547</v>
+      </c>
+      <c r="C741" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D741" t="n">
+        <v>1.656796333E9</v>
+      </c>
+      <c r="E741" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F741" t="s">
+        <v>10</v>
+      </c>
+      <c r="G741" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="H741" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>750</v>
+      </c>
+      <c r="B742" t="s">
+        <v>547</v>
+      </c>
+      <c r="C742" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D742" t="n">
+        <v>1.656796393E9</v>
+      </c>
+      <c r="E742" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F742" t="s">
+        <v>10</v>
+      </c>
+      <c r="G742" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="H742" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>751</v>
+      </c>
+      <c r="B743" t="s">
+        <v>547</v>
+      </c>
+      <c r="C743" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D743" t="n">
+        <v>1.656796453E9</v>
+      </c>
+      <c r="E743" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F743" t="s">
+        <v>10</v>
+      </c>
+      <c r="G743" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="H743" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>752</v>
+      </c>
+      <c r="B744" t="s">
+        <v>547</v>
+      </c>
+      <c r="C744" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D744" t="n">
+        <v>1.656796513E9</v>
+      </c>
+      <c r="E744" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F744" t="s">
+        <v>10</v>
+      </c>
+      <c r="G744" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="H744" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>753</v>
+      </c>
+      <c r="B745" t="s">
+        <v>547</v>
+      </c>
+      <c r="C745" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D745" t="n">
+        <v>1.656796573E9</v>
+      </c>
+      <c r="E745" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F745" t="s">
+        <v>10</v>
+      </c>
+      <c r="G745" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="H745" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>754</v>
+      </c>
+      <c r="B746" t="s">
+        <v>547</v>
+      </c>
+      <c r="C746" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D746" t="n">
+        <v>1.656796633E9</v>
+      </c>
+      <c r="E746" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F746" t="s">
+        <v>10</v>
+      </c>
+      <c r="G746" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="H746" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>755</v>
+      </c>
+      <c r="B747" t="s">
+        <v>547</v>
+      </c>
+      <c r="C747" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D747" t="n">
+        <v>1.656796693E9</v>
+      </c>
+      <c r="E747" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F747" t="s">
+        <v>10</v>
+      </c>
+      <c r="G747" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="H747" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>756</v>
+      </c>
+      <c r="B748" t="s">
+        <v>547</v>
+      </c>
+      <c r="C748" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D748" t="n">
+        <v>1.656796753E9</v>
+      </c>
+      <c r="E748" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F748" t="s">
+        <v>10</v>
+      </c>
+      <c r="G748" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H748" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>757</v>
+      </c>
+      <c r="B749" t="s">
+        <v>547</v>
+      </c>
+      <c r="C749" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D749" t="n">
+        <v>1.656796813E9</v>
+      </c>
+      <c r="E749" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F749" t="s">
+        <v>10</v>
+      </c>
+      <c r="G749" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="H749" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>758</v>
+      </c>
+      <c r="B750" t="s">
+        <v>547</v>
+      </c>
+      <c r="C750" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D750" t="n">
+        <v>1.656796873E9</v>
+      </c>
+      <c r="E750" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F750" t="s">
+        <v>10</v>
+      </c>
+      <c r="G750" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="H750" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>759</v>
+      </c>
+      <c r="B751" t="s">
+        <v>547</v>
+      </c>
+      <c r="C751" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D751" t="n">
+        <v>1.656796933E9</v>
+      </c>
+      <c r="E751" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F751" t="s">
+        <v>10</v>
+      </c>
+      <c r="G751" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="H751" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>760</v>
+      </c>
+      <c r="B752" t="s">
+        <v>547</v>
+      </c>
+      <c r="C752" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D752" t="n">
+        <v>1.656796993E9</v>
+      </c>
+      <c r="E752" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F752" t="s">
+        <v>10</v>
+      </c>
+      <c r="G752" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="H752" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>761</v>
+      </c>
+      <c r="B753" t="s">
+        <v>547</v>
+      </c>
+      <c r="C753" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D753" t="n">
+        <v>1.656797053E9</v>
+      </c>
+      <c r="E753" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F753" t="s">
+        <v>10</v>
+      </c>
+      <c r="G753" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H753" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>762</v>
+      </c>
+      <c r="B754" t="s">
+        <v>547</v>
+      </c>
+      <c r="C754" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D754" t="n">
+        <v>1.656797113E9</v>
+      </c>
+      <c r="E754" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F754" t="s">
+        <v>10</v>
+      </c>
+      <c r="G754" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="H754" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>763</v>
+      </c>
+      <c r="B755" t="s">
+        <v>547</v>
+      </c>
+      <c r="C755" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D755" t="n">
+        <v>1.656797173E9</v>
+      </c>
+      <c r="E755" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F755" t="s">
+        <v>10</v>
+      </c>
+      <c r="G755" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H755" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s">
+        <v>764</v>
+      </c>
+      <c r="B756" t="s">
+        <v>547</v>
+      </c>
+      <c r="C756" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D756" t="n">
+        <v>1.656797233E9</v>
+      </c>
+      <c r="E756" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F756" t="s">
+        <v>10</v>
+      </c>
+      <c r="G756" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="H756" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>765</v>
+      </c>
+      <c r="B757" t="s">
+        <v>547</v>
+      </c>
+      <c r="C757" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1.656797293E9</v>
+      </c>
+      <c r="E757" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F757" t="s">
+        <v>10</v>
+      </c>
+      <c r="G757" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="H757" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s">
+        <v>766</v>
+      </c>
+      <c r="B758" t="s">
+        <v>547</v>
+      </c>
+      <c r="C758" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D758" t="n">
+        <v>1.656797353E9</v>
+      </c>
+      <c r="E758" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F758" t="s">
+        <v>10</v>
+      </c>
+      <c r="G758" t="n">
+        <v>1459.0</v>
+      </c>
+      <c r="H758" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s">
+        <v>767</v>
+      </c>
+      <c r="B759" t="s">
+        <v>547</v>
+      </c>
+      <c r="C759" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D759" t="n">
+        <v>1.656797413E9</v>
+      </c>
+      <c r="E759" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F759" t="s">
+        <v>10</v>
+      </c>
+      <c r="G759" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H759" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>768</v>
+      </c>
+      <c r="B760" t="s">
+        <v>547</v>
+      </c>
+      <c r="C760" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D760" t="n">
+        <v>1.656797473E9</v>
+      </c>
+      <c r="E760" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F760" t="s">
+        <v>10</v>
+      </c>
+      <c r="G760" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="H760" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>769</v>
+      </c>
+      <c r="B761" t="s">
+        <v>547</v>
+      </c>
+      <c r="C761" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D761" t="n">
+        <v>1.656797533E9</v>
+      </c>
+      <c r="E761" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F761" t="s">
+        <v>10</v>
+      </c>
+      <c r="G761" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="H761" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>770</v>
+      </c>
+      <c r="B762" t="s">
+        <v>547</v>
+      </c>
+      <c r="C762" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D762" t="n">
+        <v>1.656797593E9</v>
+      </c>
+      <c r="E762" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F762" t="s">
+        <v>10</v>
+      </c>
+      <c r="G762" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="H762" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>771</v>
+      </c>
+      <c r="B763" t="s">
+        <v>547</v>
+      </c>
+      <c r="C763" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D763" t="n">
+        <v>1.656797653E9</v>
+      </c>
+      <c r="E763" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F763" t="s">
+        <v>10</v>
+      </c>
+      <c r="G763" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="H763" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>772</v>
+      </c>
+      <c r="B764" t="s">
+        <v>547</v>
+      </c>
+      <c r="C764" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D764" t="n">
+        <v>1.656797713E9</v>
+      </c>
+      <c r="E764" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F764" t="s">
+        <v>10</v>
+      </c>
+      <c r="G764" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="H764" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>773</v>
+      </c>
+      <c r="B765" t="s">
+        <v>547</v>
+      </c>
+      <c r="C765" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D765" t="n">
+        <v>1.656797773E9</v>
+      </c>
+      <c r="E765" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F765" t="s">
+        <v>10</v>
+      </c>
+      <c r="G765" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="H765" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>774</v>
+      </c>
+      <c r="B766" t="s">
+        <v>547</v>
+      </c>
+      <c r="C766" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D766" t="n">
+        <v>1.656797833E9</v>
+      </c>
+      <c r="E766" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F766" t="s">
+        <v>10</v>
+      </c>
+      <c r="G766" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H766" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>775</v>
+      </c>
+      <c r="B767" t="s">
+        <v>547</v>
+      </c>
+      <c r="C767" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D767" t="n">
+        <v>1.656797893E9</v>
+      </c>
+      <c r="E767" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F767" t="s">
+        <v>10</v>
+      </c>
+      <c r="G767" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="H767" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>776</v>
+      </c>
+      <c r="B768" t="s">
+        <v>547</v>
+      </c>
+      <c r="C768" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D768" t="n">
+        <v>1.656797953E9</v>
+      </c>
+      <c r="E768" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F768" t="s">
+        <v>10</v>
+      </c>
+      <c r="G768" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="H768" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>777</v>
+      </c>
+      <c r="B769" t="s">
+        <v>547</v>
+      </c>
+      <c r="C769" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D769" t="n">
+        <v>1.656798013E9</v>
+      </c>
+      <c r="E769" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F769" t="s">
+        <v>10</v>
+      </c>
+      <c r="G769" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="H769" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>778</v>
+      </c>
+      <c r="B770" t="s">
+        <v>547</v>
+      </c>
+      <c r="C770" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D770" t="n">
+        <v>1.656798073E9</v>
+      </c>
+      <c r="E770" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F770" t="s">
+        <v>10</v>
+      </c>
+      <c r="G770" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="H770" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>779</v>
+      </c>
+      <c r="B771" t="s">
+        <v>547</v>
+      </c>
+      <c r="C771" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D771" t="n">
+        <v>1.656798133E9</v>
+      </c>
+      <c r="E771" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F771" t="s">
+        <v>10</v>
+      </c>
+      <c r="G771" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H771" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>780</v>
+      </c>
+      <c r="B772" t="s">
+        <v>547</v>
+      </c>
+      <c r="C772" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D772" t="n">
+        <v>1.656798193E9</v>
+      </c>
+      <c r="E772" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F772" t="s">
+        <v>10</v>
+      </c>
+      <c r="G772" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="H772" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>781</v>
+      </c>
+      <c r="B773" t="s">
+        <v>547</v>
+      </c>
+      <c r="C773" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D773" t="n">
+        <v>1.656798253E9</v>
+      </c>
+      <c r="E773" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F773" t="s">
+        <v>10</v>
+      </c>
+      <c r="G773" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="H773" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>782</v>
+      </c>
+      <c r="B774" t="s">
+        <v>547</v>
+      </c>
+      <c r="C774" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D774" t="n">
+        <v>1.656798313E9</v>
+      </c>
+      <c r="E774" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F774" t="s">
+        <v>10</v>
+      </c>
+      <c r="G774" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="H774" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>783</v>
+      </c>
+      <c r="B775" t="s">
+        <v>547</v>
+      </c>
+      <c r="C775" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D775" t="n">
+        <v>1.656798373E9</v>
+      </c>
+      <c r="E775" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F775" t="s">
+        <v>10</v>
+      </c>
+      <c r="G775" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H775" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>784</v>
+      </c>
+      <c r="B776" t="s">
+        <v>547</v>
+      </c>
+      <c r="C776" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D776" t="n">
+        <v>1.656798373E9</v>
+      </c>
+      <c r="E776" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F776" t="s">
+        <v>10</v>
+      </c>
+      <c r="G776" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H776" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>785</v>
+      </c>
+      <c r="B777" t="s">
+        <v>547</v>
+      </c>
+      <c r="C777" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D777" t="n">
+        <v>1.656798433E9</v>
+      </c>
+      <c r="E777" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F777" t="s">
+        <v>10</v>
+      </c>
+      <c r="G777" t="n">
+        <v>30194.0</v>
+      </c>
+      <c r="H777" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>786</v>
+      </c>
+      <c r="B778" t="s">
+        <v>547</v>
+      </c>
+      <c r="C778" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D778" t="n">
+        <v>1.656798493E9</v>
+      </c>
+      <c r="E778" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F778" t="s">
+        <v>10</v>
+      </c>
+      <c r="G778" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="H778" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>787</v>
+      </c>
+      <c r="B779" t="s">
+        <v>547</v>
+      </c>
+      <c r="C779" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D779" t="n">
+        <v>1.656798553E9</v>
+      </c>
+      <c r="E779" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F779" t="s">
+        <v>10</v>
+      </c>
+      <c r="G779" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H779" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>788</v>
+      </c>
+      <c r="B780" t="s">
+        <v>547</v>
+      </c>
+      <c r="C780" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D780" t="n">
+        <v>1.656798613E9</v>
+      </c>
+      <c r="E780" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F780" t="s">
+        <v>10</v>
+      </c>
+      <c r="G780" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="H780" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>789</v>
+      </c>
+      <c r="B781" t="s">
+        <v>547</v>
+      </c>
+      <c r="C781" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D781" t="n">
+        <v>1.656798673E9</v>
+      </c>
+      <c r="E781" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F781" t="s">
+        <v>10</v>
+      </c>
+      <c r="G781" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="H781" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>790</v>
+      </c>
+      <c r="B782" t="s">
+        <v>547</v>
+      </c>
+      <c r="C782" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D782" t="n">
+        <v>1.656798733E9</v>
+      </c>
+      <c r="E782" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F782" t="s">
+        <v>10</v>
+      </c>
+      <c r="G782" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="H782" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>791</v>
+      </c>
+      <c r="B783" t="s">
+        <v>547</v>
+      </c>
+      <c r="C783" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D783" t="n">
+        <v>1.656798793E9</v>
+      </c>
+      <c r="E783" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F783" t="s">
+        <v>10</v>
+      </c>
+      <c r="G783" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="H783" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>792</v>
+      </c>
+      <c r="B784" t="s">
+        <v>547</v>
+      </c>
+      <c r="C784" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D784" t="n">
+        <v>1.656798853E9</v>
+      </c>
+      <c r="E784" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F784" t="s">
+        <v>10</v>
+      </c>
+      <c r="G784" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="H784" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>793</v>
+      </c>
+      <c r="B785" t="s">
+        <v>547</v>
+      </c>
+      <c r="C785" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D785" t="n">
+        <v>1.656798913E9</v>
+      </c>
+      <c r="E785" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F785" t="s">
+        <v>10</v>
+      </c>
+      <c r="G785" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="H785" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>794</v>
+      </c>
+      <c r="B786" t="s">
+        <v>547</v>
+      </c>
+      <c r="C786" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D786" t="n">
+        <v>1.656798973E9</v>
+      </c>
+      <c r="E786" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F786" t="s">
+        <v>10</v>
+      </c>
+      <c r="G786" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="H786" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>795</v>
+      </c>
+      <c r="B787" t="s">
+        <v>547</v>
+      </c>
+      <c r="C787" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D787" t="n">
+        <v>1.656799033E9</v>
+      </c>
+      <c r="E787" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F787" t="s">
+        <v>10</v>
+      </c>
+      <c r="G787" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H787" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>796</v>
+      </c>
+      <c r="B788" t="s">
+        <v>547</v>
+      </c>
+      <c r="C788" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D788" t="n">
+        <v>1.656799093E9</v>
+      </c>
+      <c r="E788" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F788" t="s">
+        <v>10</v>
+      </c>
+      <c r="G788" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="H788" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>797</v>
+      </c>
+      <c r="B789" t="s">
+        <v>547</v>
+      </c>
+      <c r="C789" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D789" t="n">
+        <v>1.656799153E9</v>
+      </c>
+      <c r="E789" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F789" t="s">
+        <v>10</v>
+      </c>
+      <c r="G789" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="H789" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>798</v>
+      </c>
+      <c r="B790" t="s">
+        <v>547</v>
+      </c>
+      <c r="C790" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D790" t="n">
+        <v>1.656799213E9</v>
+      </c>
+      <c r="E790" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F790" t="s">
+        <v>10</v>
+      </c>
+      <c r="G790" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H790" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>799</v>
+      </c>
+      <c r="B791" t="s">
+        <v>547</v>
+      </c>
+      <c r="C791" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D791" t="n">
+        <v>1.656799273E9</v>
+      </c>
+      <c r="E791" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F791" t="s">
+        <v>10</v>
+      </c>
+      <c r="G791" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="H791" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>800</v>
+      </c>
+      <c r="B792" t="s">
+        <v>547</v>
+      </c>
+      <c r="C792" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D792" t="n">
+        <v>1.656799333E9</v>
+      </c>
+      <c r="E792" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F792" t="s">
+        <v>10</v>
+      </c>
+      <c r="G792" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="H792" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>801</v>
+      </c>
+      <c r="B793" t="s">
+        <v>547</v>
+      </c>
+      <c r="C793" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D793" t="n">
+        <v>1.656799393E9</v>
+      </c>
+      <c r="E793" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F793" t="s">
+        <v>10</v>
+      </c>
+      <c r="G793" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H793" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>802</v>
+      </c>
+      <c r="B794" t="s">
+        <v>547</v>
+      </c>
+      <c r="C794" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D794" t="n">
+        <v>1.656799453E9</v>
+      </c>
+      <c r="E794" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F794" t="s">
+        <v>10</v>
+      </c>
+      <c r="G794" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="H794" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>803</v>
+      </c>
+      <c r="B795" t="s">
+        <v>547</v>
+      </c>
+      <c r="C795" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D795" t="n">
+        <v>1.656799513E9</v>
+      </c>
+      <c r="E795" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F795" t="s">
+        <v>10</v>
+      </c>
+      <c r="G795" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="H795" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>804</v>
+      </c>
+      <c r="B796" t="s">
+        <v>547</v>
+      </c>
+      <c r="C796" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D796" t="n">
+        <v>1.656799573E9</v>
+      </c>
+      <c r="E796" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F796" t="s">
+        <v>10</v>
+      </c>
+      <c r="G796" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="H796" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>805</v>
+      </c>
+      <c r="B797" t="s">
+        <v>547</v>
+      </c>
+      <c r="C797" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D797" t="n">
+        <v>1.656799633E9</v>
+      </c>
+      <c r="E797" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F797" t="s">
+        <v>10</v>
+      </c>
+      <c r="G797" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="H797" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>806</v>
+      </c>
+      <c r="B798" t="s">
+        <v>547</v>
+      </c>
+      <c r="C798" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D798" t="n">
+        <v>1.656799633E9</v>
+      </c>
+      <c r="E798" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F798" t="s">
+        <v>10</v>
+      </c>
+      <c r="G798" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="H798" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>807</v>
+      </c>
+      <c r="B799" t="s">
+        <v>547</v>
+      </c>
+      <c r="C799" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D799" t="n">
+        <v>1.656799693E9</v>
+      </c>
+      <c r="E799" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F799" t="s">
+        <v>10</v>
+      </c>
+      <c r="G799" t="n">
+        <v>30202.0</v>
+      </c>
+      <c r="H799" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>808</v>
+      </c>
+      <c r="B800" t="s">
+        <v>547</v>
+      </c>
+      <c r="C800" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D800" t="n">
+        <v>1.656799753E9</v>
+      </c>
+      <c r="E800" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F800" t="s">
+        <v>10</v>
+      </c>
+      <c r="G800" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="H800" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>809</v>
+      </c>
+      <c r="B801" t="s">
+        <v>547</v>
+      </c>
+      <c r="C801" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D801" t="n">
+        <v>1.656799813E9</v>
+      </c>
+      <c r="E801" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F801" t="s">
+        <v>10</v>
+      </c>
+      <c r="G801" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="H801" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>810</v>
+      </c>
+      <c r="B802" t="s">
+        <v>547</v>
+      </c>
+      <c r="C802" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D802" t="n">
+        <v>1.656799873E9</v>
+      </c>
+      <c r="E802" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F802" t="s">
+        <v>10</v>
+      </c>
+      <c r="G802" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="H802" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>811</v>
+      </c>
+      <c r="B803" t="s">
+        <v>547</v>
+      </c>
+      <c r="C803" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D803" t="n">
+        <v>1.656799933E9</v>
+      </c>
+      <c r="E803" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F803" t="s">
+        <v>10</v>
+      </c>
+      <c r="G803" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H803" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>812</v>
+      </c>
+      <c r="B804" t="s">
+        <v>547</v>
+      </c>
+      <c r="C804" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D804" t="n">
+        <v>1.656799993E9</v>
+      </c>
+      <c r="E804" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F804" t="s">
+        <v>10</v>
+      </c>
+      <c r="G804" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="H804" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>813</v>
+      </c>
+      <c r="B805" t="s">
+        <v>547</v>
+      </c>
+      <c r="C805" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D805" t="n">
+        <v>1.656800053E9</v>
+      </c>
+      <c r="E805" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F805" t="s">
+        <v>10</v>
+      </c>
+      <c r="G805" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="H805" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>814</v>
+      </c>
+      <c r="B806" t="s">
+        <v>547</v>
+      </c>
+      <c r="C806" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D806" t="n">
+        <v>1.656800113E9</v>
+      </c>
+      <c r="E806" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F806" t="s">
+        <v>10</v>
+      </c>
+      <c r="G806" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="H806" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>815</v>
+      </c>
+      <c r="B807" t="s">
+        <v>547</v>
+      </c>
+      <c r="C807" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D807" t="n">
+        <v>1.656800173E9</v>
+      </c>
+      <c r="E807" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F807" t="s">
+        <v>10</v>
+      </c>
+      <c r="G807" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="H807" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>816</v>
+      </c>
+      <c r="B808" t="s">
+        <v>547</v>
+      </c>
+      <c r="C808" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D808" t="n">
+        <v>1.656800233E9</v>
+      </c>
+      <c r="E808" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F808" t="s">
+        <v>10</v>
+      </c>
+      <c r="G808" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="H808" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>817</v>
+      </c>
+      <c r="B809" t="s">
+        <v>547</v>
+      </c>
+      <c r="C809" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D809" t="n">
+        <v>1.656800293E9</v>
+      </c>
+      <c r="E809" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F809" t="s">
+        <v>10</v>
+      </c>
+      <c r="G809" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="H809" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>818</v>
+      </c>
+      <c r="B810" t="s">
+        <v>547</v>
+      </c>
+      <c r="C810" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D810" t="n">
+        <v>1.656800353E9</v>
+      </c>
+      <c r="E810" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F810" t="s">
+        <v>10</v>
+      </c>
+      <c r="G810" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="H810" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>819</v>
+      </c>
+      <c r="B811" t="s">
+        <v>547</v>
+      </c>
+      <c r="C811" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D811" t="n">
+        <v>1.656800413E9</v>
+      </c>
+      <c r="E811" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F811" t="s">
+        <v>10</v>
+      </c>
+      <c r="G811" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="H811" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>820</v>
+      </c>
+      <c r="B812" t="s">
+        <v>547</v>
+      </c>
+      <c r="C812" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D812" t="n">
+        <v>1.656800473E9</v>
+      </c>
+      <c r="E812" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F812" t="s">
+        <v>10</v>
+      </c>
+      <c r="G812" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="H812" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>821</v>
+      </c>
+      <c r="B813" t="s">
+        <v>547</v>
+      </c>
+      <c r="C813" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D813" t="n">
+        <v>1.656800533E9</v>
+      </c>
+      <c r="E813" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F813" t="s">
+        <v>10</v>
+      </c>
+      <c r="G813" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="H813" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>822</v>
+      </c>
+      <c r="B814" t="s">
+        <v>547</v>
+      </c>
+      <c r="C814" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D814" t="n">
+        <v>1.656800593E9</v>
+      </c>
+      <c r="E814" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F814" t="s">
+        <v>10</v>
+      </c>
+      <c r="G814" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="H814" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>823</v>
+      </c>
+      <c r="B815" t="s">
+        <v>547</v>
+      </c>
+      <c r="C815" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D815" t="n">
+        <v>1.656800653E9</v>
+      </c>
+      <c r="E815" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F815" t="s">
+        <v>10</v>
+      </c>
+      <c r="G815" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="H815" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>824</v>
+      </c>
+      <c r="B816" t="s">
+        <v>547</v>
+      </c>
+      <c r="C816" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D816" t="n">
+        <v>1.656800713E9</v>
+      </c>
+      <c r="E816" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F816" t="s">
+        <v>10</v>
+      </c>
+      <c r="G816" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="H816" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>825</v>
+      </c>
+      <c r="B817" t="s">
+        <v>547</v>
+      </c>
+      <c r="C817" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D817" t="n">
+        <v>1.656800773E9</v>
+      </c>
+      <c r="E817" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F817" t="s">
+        <v>10</v>
+      </c>
+      <c r="G817" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="H817" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>826</v>
+      </c>
+      <c r="B818" t="s">
+        <v>547</v>
+      </c>
+      <c r="C818" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D818" t="n">
+        <v>1.656800833E9</v>
+      </c>
+      <c r="E818" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F818" t="s">
+        <v>10</v>
+      </c>
+      <c r="G818" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H818" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>827</v>
+      </c>
+      <c r="B819" t="s">
+        <v>547</v>
+      </c>
+      <c r="C819" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D819" t="n">
+        <v>1.656800893E9</v>
+      </c>
+      <c r="E819" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F819" t="s">
+        <v>10</v>
+      </c>
+      <c r="G819" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="H819" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>828</v>
+      </c>
+      <c r="B820" t="s">
+        <v>547</v>
+      </c>
+      <c r="C820" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D820" t="n">
+        <v>1.656800953E9</v>
+      </c>
+      <c r="E820" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F820" t="s">
+        <v>10</v>
+      </c>
+      <c r="G820" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="H820" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>829</v>
+      </c>
+      <c r="B821" t="s">
+        <v>547</v>
+      </c>
+      <c r="C821" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D821" t="n">
+        <v>1.656801013E9</v>
+      </c>
+      <c r="E821" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F821" t="s">
+        <v>10</v>
+      </c>
+      <c r="G821" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="H821" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>830</v>
+      </c>
+      <c r="B822" t="s">
+        <v>547</v>
+      </c>
+      <c r="C822" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D822" t="n">
+        <v>1.656801073E9</v>
+      </c>
+      <c r="E822" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F822" t="s">
+        <v>10</v>
+      </c>
+      <c r="G822" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="H822" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>831</v>
+      </c>
+      <c r="B823" t="s">
+        <v>547</v>
+      </c>
+      <c r="C823" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D823" t="n">
+        <v>1.656801133E9</v>
+      </c>
+      <c r="E823" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F823" t="s">
+        <v>10</v>
+      </c>
+      <c r="G823" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="H823" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>832</v>
+      </c>
+      <c r="B824" t="s">
+        <v>547</v>
+      </c>
+      <c r="C824" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D824" t="n">
+        <v>1.656801193E9</v>
+      </c>
+      <c r="E824" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F824" t="s">
+        <v>10</v>
+      </c>
+      <c r="G824" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="H824" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>833</v>
+      </c>
+      <c r="B825" t="s">
+        <v>547</v>
+      </c>
+      <c r="C825" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D825" t="n">
+        <v>1.656801253E9</v>
+      </c>
+      <c r="E825" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F825" t="s">
+        <v>10</v>
+      </c>
+      <c r="G825" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="H825" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>834</v>
+      </c>
+      <c r="B826" t="s">
+        <v>547</v>
+      </c>
+      <c r="C826" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D826" t="n">
+        <v>1.656801313E9</v>
+      </c>
+      <c r="E826" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F826" t="s">
+        <v>10</v>
+      </c>
+      <c r="G826" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="H826" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>835</v>
+      </c>
+      <c r="B827" t="s">
+        <v>547</v>
+      </c>
+      <c r="C827" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D827" t="n">
+        <v>1.656801373E9</v>
+      </c>
+      <c r="E827" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F827" t="s">
+        <v>10</v>
+      </c>
+      <c r="G827" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H827" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>836</v>
+      </c>
+      <c r="B828" t="s">
+        <v>547</v>
+      </c>
+      <c r="C828" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D828" t="n">
+        <v>1.656801433E9</v>
+      </c>
+      <c r="E828" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F828" t="s">
+        <v>10</v>
+      </c>
+      <c r="G828" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="H828" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>837</v>
+      </c>
+      <c r="B829" t="s">
+        <v>547</v>
+      </c>
+      <c r="C829" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D829" t="n">
+        <v>1.656801493E9</v>
+      </c>
+      <c r="E829" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F829" t="s">
+        <v>10</v>
+      </c>
+      <c r="G829" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="H829" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>838</v>
+      </c>
+      <c r="B830" t="s">
+        <v>547</v>
+      </c>
+      <c r="C830" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D830" t="n">
+        <v>1.656801553E9</v>
+      </c>
+      <c r="E830" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F830" t="s">
+        <v>10</v>
+      </c>
+      <c r="G830" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="H830" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>839</v>
+      </c>
+      <c r="B831" t="s">
+        <v>547</v>
+      </c>
+      <c r="C831" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D831" t="n">
+        <v>1.656801613E9</v>
+      </c>
+      <c r="E831" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F831" t="s">
+        <v>10</v>
+      </c>
+      <c r="G831" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="H831" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>840</v>
+      </c>
+      <c r="B832" t="s">
+        <v>547</v>
+      </c>
+      <c r="C832" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D832" t="n">
+        <v>1.656801673E9</v>
+      </c>
+      <c r="E832" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F832" t="s">
+        <v>10</v>
+      </c>
+      <c r="G832" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="H832" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>841</v>
+      </c>
+      <c r="B833" t="s">
+        <v>547</v>
+      </c>
+      <c r="C833" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D833" t="n">
+        <v>1.656801733E9</v>
+      </c>
+      <c r="E833" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F833" t="s">
+        <v>10</v>
+      </c>
+      <c r="G833" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H833" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>842</v>
+      </c>
+      <c r="B834" t="s">
+        <v>547</v>
+      </c>
+      <c r="C834" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D834" t="n">
+        <v>1.656801793E9</v>
+      </c>
+      <c r="E834" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F834" t="s">
+        <v>10</v>
+      </c>
+      <c r="G834" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="H834" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>843</v>
+      </c>
+      <c r="B835" t="s">
+        <v>547</v>
+      </c>
+      <c r="C835" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D835" t="n">
+        <v>1.656801853E9</v>
+      </c>
+      <c r="E835" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F835" t="s">
+        <v>10</v>
+      </c>
+      <c r="G835" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="H835" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>844</v>
+      </c>
+      <c r="B836" t="s">
+        <v>547</v>
+      </c>
+      <c r="C836" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D836" t="n">
+        <v>1.656801913E9</v>
+      </c>
+      <c r="E836" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F836" t="s">
+        <v>10</v>
+      </c>
+      <c r="G836" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="H836" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>845</v>
+      </c>
+      <c r="B837" t="s">
+        <v>547</v>
+      </c>
+      <c r="C837" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D837" t="n">
+        <v>1.656801973E9</v>
+      </c>
+      <c r="E837" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F837" t="s">
+        <v>10</v>
+      </c>
+      <c r="G837" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="H837" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>846</v>
+      </c>
+      <c r="B838" t="s">
+        <v>547</v>
+      </c>
+      <c r="C838" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D838" t="n">
+        <v>1.656802033E9</v>
+      </c>
+      <c r="E838" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F838" t="s">
+        <v>10</v>
+      </c>
+      <c r="G838" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="H838" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>847</v>
+      </c>
+      <c r="B839" t="s">
+        <v>547</v>
+      </c>
+      <c r="C839" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D839" t="n">
+        <v>1.656802093E9</v>
+      </c>
+      <c r="E839" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F839" t="s">
+        <v>10</v>
+      </c>
+      <c r="G839" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="H839" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>848</v>
+      </c>
+      <c r="B840" t="s">
+        <v>547</v>
+      </c>
+      <c r="C840" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D840" t="n">
+        <v>1.656802153E9</v>
+      </c>
+      <c r="E840" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F840" t="s">
+        <v>10</v>
+      </c>
+      <c r="G840" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="H840" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s">
+        <v>849</v>
+      </c>
+      <c r="B841" t="s">
+        <v>547</v>
+      </c>
+      <c r="C841" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D841" t="n">
+        <v>1.656802213E9</v>
+      </c>
+      <c r="E841" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F841" t="s">
+        <v>10</v>
+      </c>
+      <c r="G841" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="H841" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>850</v>
+      </c>
+      <c r="B842" t="s">
+        <v>547</v>
+      </c>
+      <c r="C842" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D842" t="n">
+        <v>1.656802273E9</v>
+      </c>
+      <c r="E842" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F842" t="s">
+        <v>10</v>
+      </c>
+      <c r="G842" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H842" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>851</v>
+      </c>
+      <c r="B843" t="s">
+        <v>547</v>
+      </c>
+      <c r="C843" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D843" t="n">
+        <v>1.656802333E9</v>
+      </c>
+      <c r="E843" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F843" t="s">
+        <v>10</v>
+      </c>
+      <c r="G843" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="H843" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>852</v>
+      </c>
+      <c r="B844" t="s">
+        <v>547</v>
+      </c>
+      <c r="C844" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D844" t="n">
+        <v>1.656802393E9</v>
+      </c>
+      <c r="E844" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F844" t="s">
+        <v>10</v>
+      </c>
+      <c r="G844" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="H844" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>853</v>
+      </c>
+      <c r="B845" t="s">
+        <v>547</v>
+      </c>
+      <c r="C845" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D845" t="n">
+        <v>1.656802453E9</v>
+      </c>
+      <c r="E845" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F845" t="s">
+        <v>10</v>
+      </c>
+      <c r="G845" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="H845" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>854</v>
+      </c>
+      <c r="B846" t="s">
+        <v>547</v>
+      </c>
+      <c r="C846" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D846" t="n">
+        <v>1.656802513E9</v>
+      </c>
+      <c r="E846" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F846" t="s">
+        <v>10</v>
+      </c>
+      <c r="G846" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="H846" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>855</v>
+      </c>
+      <c r="B847" t="s">
+        <v>547</v>
+      </c>
+      <c r="C847" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D847" t="n">
+        <v>1.656802573E9</v>
+      </c>
+      <c r="E847" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F847" t="s">
+        <v>10</v>
+      </c>
+      <c r="G847" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="H847" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>856</v>
+      </c>
+      <c r="B848" t="s">
+        <v>547</v>
+      </c>
+      <c r="C848" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D848" t="n">
+        <v>1.656802633E9</v>
+      </c>
+      <c r="E848" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F848" t="s">
+        <v>10</v>
+      </c>
+      <c r="G848" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H848" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>857</v>
+      </c>
+      <c r="B849" t="s">
+        <v>547</v>
+      </c>
+      <c r="C849" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D849" t="n">
+        <v>1.656802693E9</v>
+      </c>
+      <c r="E849" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F849" t="s">
+        <v>10</v>
+      </c>
+      <c r="G849" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="H849" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>858</v>
+      </c>
+      <c r="B850" t="s">
+        <v>547</v>
+      </c>
+      <c r="C850" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D850" t="n">
+        <v>1.656802753E9</v>
+      </c>
+      <c r="E850" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F850" t="s">
+        <v>10</v>
+      </c>
+      <c r="G850" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="H850" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>859</v>
+      </c>
+      <c r="B851" t="s">
+        <v>547</v>
+      </c>
+      <c r="C851" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D851" t="n">
+        <v>1.656802813E9</v>
+      </c>
+      <c r="E851" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F851" t="s">
+        <v>10</v>
+      </c>
+      <c r="G851" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="H851" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>860</v>
+      </c>
+      <c r="B852" t="s">
+        <v>547</v>
+      </c>
+      <c r="C852" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D852" t="n">
+        <v>1.656802873E9</v>
+      </c>
+      <c r="E852" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F852" t="s">
+        <v>10</v>
+      </c>
+      <c r="G852" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="H852" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>861</v>
+      </c>
+      <c r="B853" t="s">
+        <v>547</v>
+      </c>
+      <c r="C853" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D853" t="n">
+        <v>1.656802933E9</v>
+      </c>
+      <c r="E853" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F853" t="s">
+        <v>10</v>
+      </c>
+      <c r="G853" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="H853" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>862</v>
+      </c>
+      <c r="B854" t="s">
+        <v>547</v>
+      </c>
+      <c r="C854" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D854" t="n">
+        <v>1.656802993E9</v>
+      </c>
+      <c r="E854" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F854" t="s">
+        <v>10</v>
+      </c>
+      <c r="G854" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="H854" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>863</v>
+      </c>
+      <c r="B855" t="s">
+        <v>547</v>
+      </c>
+      <c r="C855" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D855" t="n">
+        <v>1.656803053E9</v>
+      </c>
+      <c r="E855" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F855" t="s">
+        <v>10</v>
+      </c>
+      <c r="G855" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="H855" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>864</v>
+      </c>
+      <c r="B856" t="s">
+        <v>547</v>
+      </c>
+      <c r="C856" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D856" t="n">
+        <v>1.656803113E9</v>
+      </c>
+      <c r="E856" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F856" t="s">
+        <v>10</v>
+      </c>
+      <c r="G856" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="H856" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>865</v>
+      </c>
+      <c r="B857" t="s">
+        <v>547</v>
+      </c>
+      <c r="C857" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D857" t="n">
+        <v>1.656803173E9</v>
+      </c>
+      <c r="E857" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F857" t="s">
+        <v>10</v>
+      </c>
+      <c r="G857" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="H857" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>866</v>
+      </c>
+      <c r="B858" t="s">
+        <v>547</v>
+      </c>
+      <c r="C858" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D858" t="n">
+        <v>1.656803233E9</v>
+      </c>
+      <c r="E858" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F858" t="s">
+        <v>10</v>
+      </c>
+      <c r="G858" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="H858" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>867</v>
+      </c>
+      <c r="B859" t="s">
+        <v>547</v>
+      </c>
+      <c r="C859" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D859" t="n">
+        <v>1.656803293E9</v>
+      </c>
+      <c r="E859" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F859" t="s">
+        <v>10</v>
+      </c>
+      <c r="G859" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="H859" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>868</v>
+      </c>
+      <c r="B860" t="s">
+        <v>547</v>
+      </c>
+      <c r="C860" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D860" t="n">
+        <v>1.656803353E9</v>
+      </c>
+      <c r="E860" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F860" t="s">
+        <v>10</v>
+      </c>
+      <c r="G860" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="H860" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>869</v>
+      </c>
+      <c r="B861" t="s">
+        <v>547</v>
+      </c>
+      <c r="C861" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D861" t="n">
+        <v>1.656803413E9</v>
+      </c>
+      <c r="E861" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F861" t="s">
+        <v>10</v>
+      </c>
+      <c r="G861" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="H861" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>870</v>
+      </c>
+      <c r="B862" t="s">
+        <v>547</v>
+      </c>
+      <c r="C862" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D862" t="n">
+        <v>1.656803473E9</v>
+      </c>
+      <c r="E862" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F862" t="s">
+        <v>10</v>
+      </c>
+      <c r="G862" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="H862" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>871</v>
+      </c>
+      <c r="B863" t="s">
+        <v>547</v>
+      </c>
+      <c r="C863" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D863" t="n">
+        <v>1.656803533E9</v>
+      </c>
+      <c r="E863" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F863" t="s">
+        <v>10</v>
+      </c>
+      <c r="G863" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="H863" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>872</v>
+      </c>
+      <c r="B864" t="s">
+        <v>547</v>
+      </c>
+      <c r="C864" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D864" t="n">
+        <v>1.656803593E9</v>
+      </c>
+      <c r="E864" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F864" t="s">
+        <v>10</v>
+      </c>
+      <c r="G864" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="H864" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>873</v>
+      </c>
+      <c r="B865" t="s">
+        <v>547</v>
+      </c>
+      <c r="C865" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D865" t="n">
+        <v>1.656803653E9</v>
+      </c>
+      <c r="E865" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F865" t="s">
+        <v>10</v>
+      </c>
+      <c r="G865" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="H865" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>874</v>
+      </c>
+      <c r="B866" t="s">
+        <v>547</v>
+      </c>
+      <c r="C866" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D866" t="n">
+        <v>1.656803713E9</v>
+      </c>
+      <c r="E866" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F866" t="s">
+        <v>10</v>
+      </c>
+      <c r="G866" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="H866" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>875</v>
+      </c>
+      <c r="B867" t="s">
+        <v>547</v>
+      </c>
+      <c r="C867" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D867" t="n">
+        <v>1.656803773E9</v>
+      </c>
+      <c r="E867" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F867" t="s">
+        <v>10</v>
+      </c>
+      <c r="G867" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="H867" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>876</v>
+      </c>
+      <c r="B868" t="s">
+        <v>547</v>
+      </c>
+      <c r="C868" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D868" t="n">
+        <v>1.656803834E9</v>
+      </c>
+      <c r="E868" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F868" t="s">
+        <v>10</v>
+      </c>
+      <c r="G868" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="H868" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>877</v>
+      </c>
+      <c r="B869" t="s">
+        <v>547</v>
+      </c>
+      <c r="C869" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D869" t="n">
+        <v>1.656803893E9</v>
+      </c>
+      <c r="E869" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F869" t="s">
+        <v>10</v>
+      </c>
+      <c r="G869" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="H869" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>878</v>
+      </c>
+      <c r="B870" t="s">
+        <v>547</v>
+      </c>
+      <c r="C870" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D870" t="n">
+        <v>1.656803954E9</v>
+      </c>
+      <c r="E870" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F870" t="s">
+        <v>10</v>
+      </c>
+      <c r="G870" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="H870" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>879</v>
+      </c>
+      <c r="B871" t="s">
+        <v>547</v>
+      </c>
+      <c r="C871" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D871" t="n">
+        <v>1.656804014E9</v>
+      </c>
+      <c r="E871" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F871" t="s">
+        <v>10</v>
+      </c>
+      <c r="G871" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="H871" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>880</v>
+      </c>
+      <c r="B872" t="s">
+        <v>547</v>
+      </c>
+      <c r="C872" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D872" t="n">
+        <v>1.656804074E9</v>
+      </c>
+      <c r="E872" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F872" t="s">
+        <v>10</v>
+      </c>
+      <c r="G872" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="H872" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>881</v>
+      </c>
+      <c r="B873" t="s">
+        <v>547</v>
+      </c>
+      <c r="C873" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D873" t="n">
+        <v>1.656804134E9</v>
+      </c>
+      <c r="E873" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F873" t="s">
+        <v>10</v>
+      </c>
+      <c r="G873" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="H873" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>882</v>
+      </c>
+      <c r="B874" t="s">
+        <v>547</v>
+      </c>
+      <c r="C874" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D874" t="n">
+        <v>1.656804194E9</v>
+      </c>
+      <c r="E874" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F874" t="s">
+        <v>10</v>
+      </c>
+      <c r="G874" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="H874" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>883</v>
+      </c>
+      <c r="B875" t="s">
+        <v>547</v>
+      </c>
+      <c r="C875" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D875" t="n">
+        <v>1.656804254E9</v>
+      </c>
+      <c r="E875" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F875" t="s">
+        <v>10</v>
+      </c>
+      <c r="G875" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="H875" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>884</v>
+      </c>
+      <c r="B876" t="s">
+        <v>547</v>
+      </c>
+      <c r="C876" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D876" t="n">
+        <v>1.656804314E9</v>
+      </c>
+      <c r="E876" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F876" t="s">
+        <v>10</v>
+      </c>
+      <c r="G876" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H876" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>885</v>
+      </c>
+      <c r="B877" t="s">
+        <v>547</v>
+      </c>
+      <c r="C877" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D877" t="n">
+        <v>1.656804374E9</v>
+      </c>
+      <c r="E877" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F877" t="s">
+        <v>10</v>
+      </c>
+      <c r="G877" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H877" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>886</v>
+      </c>
+      <c r="B878" t="s">
+        <v>547</v>
+      </c>
+      <c r="C878" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D878" t="n">
+        <v>1.656804434E9</v>
+      </c>
+      <c r="E878" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F878" t="s">
+        <v>10</v>
+      </c>
+      <c r="G878" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="H878" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>887</v>
+      </c>
+      <c r="B879" t="s">
+        <v>547</v>
+      </c>
+      <c r="C879" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D879" t="n">
+        <v>1.656804494E9</v>
+      </c>
+      <c r="E879" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F879" t="s">
+        <v>10</v>
+      </c>
+      <c r="G879" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="H879" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>888</v>
+      </c>
+      <c r="B880" t="s">
+        <v>547</v>
+      </c>
+      <c r="C880" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D880" t="n">
+        <v>1.656804554E9</v>
+      </c>
+      <c r="E880" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F880" t="s">
+        <v>10</v>
+      </c>
+      <c r="G880" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="H880" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>889</v>
+      </c>
+      <c r="B881" t="s">
+        <v>547</v>
+      </c>
+      <c r="C881" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D881" t="n">
+        <v>1.656804614E9</v>
+      </c>
+      <c r="E881" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F881" t="s">
+        <v>10</v>
+      </c>
+      <c r="G881" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="H881" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>890</v>
+      </c>
+      <c r="B882" t="s">
+        <v>547</v>
+      </c>
+      <c r="C882" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D882" t="n">
+        <v>1.656804674E9</v>
+      </c>
+      <c r="E882" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F882" t="s">
+        <v>10</v>
+      </c>
+      <c r="G882" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="H882" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>891</v>
+      </c>
+      <c r="B883" t="s">
+        <v>547</v>
+      </c>
+      <c r="C883" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D883" t="n">
+        <v>1.656804734E9</v>
+      </c>
+      <c r="E883" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F883" t="s">
+        <v>10</v>
+      </c>
+      <c r="G883" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H883" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>892</v>
+      </c>
+      <c r="B884" t="s">
+        <v>547</v>
+      </c>
+      <c r="C884" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D884" t="n">
+        <v>1.656804794E9</v>
+      </c>
+      <c r="E884" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F884" t="s">
+        <v>10</v>
+      </c>
+      <c r="G884" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="H884" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>893</v>
+      </c>
+      <c r="B885" t="s">
+        <v>547</v>
+      </c>
+      <c r="C885" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D885" t="n">
+        <v>1.656804854E9</v>
+      </c>
+      <c r="E885" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F885" t="s">
+        <v>10</v>
+      </c>
+      <c r="G885" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="H885" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>894</v>
+      </c>
+      <c r="B886" t="s">
+        <v>547</v>
+      </c>
+      <c r="C886" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D886" t="n">
+        <v>1.656804914E9</v>
+      </c>
+      <c r="E886" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F886" t="s">
+        <v>10</v>
+      </c>
+      <c r="G886" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="H886" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>895</v>
+      </c>
+      <c r="B887" t="s">
+        <v>547</v>
+      </c>
+      <c r="C887" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D887" t="n">
+        <v>1.656804974E9</v>
+      </c>
+      <c r="E887" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F887" t="s">
+        <v>10</v>
+      </c>
+      <c r="G887" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="H887" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>896</v>
+      </c>
+      <c r="B888" t="s">
+        <v>547</v>
+      </c>
+      <c r="C888" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D888" t="n">
+        <v>1.656805034E9</v>
+      </c>
+      <c r="E888" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F888" t="s">
+        <v>10</v>
+      </c>
+      <c r="G888" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H888" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>897</v>
+      </c>
+      <c r="B889" t="s">
+        <v>547</v>
+      </c>
+      <c r="C889" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D889" t="n">
+        <v>1.656805094E9</v>
+      </c>
+      <c r="E889" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F889" t="s">
+        <v>10</v>
+      </c>
+      <c r="G889" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="H889" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>898</v>
+      </c>
+      <c r="B890" t="s">
+        <v>547</v>
+      </c>
+      <c r="C890" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D890" t="n">
+        <v>1.656805154E9</v>
+      </c>
+      <c r="E890" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F890" t="s">
+        <v>10</v>
+      </c>
+      <c r="G890" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="H890" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>899</v>
+      </c>
+      <c r="B891" t="s">
+        <v>547</v>
+      </c>
+      <c r="C891" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D891" t="n">
+        <v>1.656805214E9</v>
+      </c>
+      <c r="E891" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F891" t="s">
+        <v>10</v>
+      </c>
+      <c r="G891" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="H891" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>900</v>
+      </c>
+      <c r="B892" t="s">
+        <v>547</v>
+      </c>
+      <c r="C892" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D892" t="n">
+        <v>1.656805274E9</v>
+      </c>
+      <c r="E892" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F892" t="s">
+        <v>10</v>
+      </c>
+      <c r="G892" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H892" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>901</v>
+      </c>
+      <c r="B893" t="s">
+        <v>547</v>
+      </c>
+      <c r="C893" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D893" t="n">
+        <v>1.656805334E9</v>
+      </c>
+      <c r="E893" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F893" t="s">
+        <v>10</v>
+      </c>
+      <c r="G893" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="H893" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>902</v>
+      </c>
+      <c r="B894" t="s">
+        <v>547</v>
+      </c>
+      <c r="C894" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D894" t="n">
+        <v>1.656805394E9</v>
+      </c>
+      <c r="E894" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F894" t="s">
+        <v>10</v>
+      </c>
+      <c r="G894" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H894" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>903</v>
+      </c>
+      <c r="B895" t="s">
+        <v>547</v>
+      </c>
+      <c r="C895" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D895" t="n">
+        <v>1.656805454E9</v>
+      </c>
+      <c r="E895" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F895" t="s">
+        <v>10</v>
+      </c>
+      <c r="G895" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="H895" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>904</v>
+      </c>
+      <c r="B896" t="s">
+        <v>547</v>
+      </c>
+      <c r="C896" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D896" t="n">
+        <v>1.656805514E9</v>
+      </c>
+      <c r="E896" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F896" t="s">
+        <v>10</v>
+      </c>
+      <c r="G896" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="H896" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>905</v>
+      </c>
+      <c r="B897" t="s">
+        <v>547</v>
+      </c>
+      <c r="C897" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D897" t="n">
+        <v>1.656805574E9</v>
+      </c>
+      <c r="E897" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F897" t="s">
+        <v>10</v>
+      </c>
+      <c r="G897" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="H897" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>906</v>
+      </c>
+      <c r="B898" t="s">
+        <v>547</v>
+      </c>
+      <c r="C898" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D898" t="n">
+        <v>1.656805634E9</v>
+      </c>
+      <c r="E898" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F898" t="s">
+        <v>10</v>
+      </c>
+      <c r="G898" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="H898" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>907</v>
+      </c>
+      <c r="B899" t="s">
+        <v>547</v>
+      </c>
+      <c r="C899" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D899" t="n">
+        <v>1.656805694E9</v>
+      </c>
+      <c r="E899" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F899" t="s">
+        <v>10</v>
+      </c>
+      <c r="G899" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="H899" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>908</v>
+      </c>
+      <c r="B900" t="s">
+        <v>547</v>
+      </c>
+      <c r="C900" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D900" t="n">
+        <v>1.656805754E9</v>
+      </c>
+      <c r="E900" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F900" t="s">
+        <v>10</v>
+      </c>
+      <c r="G900" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="H900" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>909</v>
+      </c>
+      <c r="B901" t="s">
+        <v>547</v>
+      </c>
+      <c r="C901" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D901" t="n">
+        <v>1.656805814E9</v>
+      </c>
+      <c r="E901" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F901" t="s">
+        <v>10</v>
+      </c>
+      <c r="G901" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="H901" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>910</v>
+      </c>
+      <c r="B902" t="s">
+        <v>547</v>
+      </c>
+      <c r="C902" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D902" t="n">
+        <v>1.656805874E9</v>
+      </c>
+      <c r="E902" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F902" t="s">
+        <v>10</v>
+      </c>
+      <c r="G902" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H902" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>911</v>
+      </c>
+      <c r="B903" t="s">
+        <v>547</v>
+      </c>
+      <c r="C903" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D903" t="n">
+        <v>1.656805934E9</v>
+      </c>
+      <c r="E903" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F903" t="s">
+        <v>10</v>
+      </c>
+      <c r="G903" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="H903" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>912</v>
+      </c>
+      <c r="B904" t="s">
+        <v>547</v>
+      </c>
+      <c r="C904" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D904" t="n">
+        <v>1.656805994E9</v>
+      </c>
+      <c r="E904" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F904" t="s">
+        <v>10</v>
+      </c>
+      <c r="G904" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H904" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>913</v>
+      </c>
+      <c r="B905" t="s">
+        <v>547</v>
+      </c>
+      <c r="C905" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D905" t="n">
+        <v>1.656806054E9</v>
+      </c>
+      <c r="E905" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F905" t="s">
+        <v>10</v>
+      </c>
+      <c r="G905" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="H905" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>914</v>
+      </c>
+      <c r="B906" t="s">
+        <v>547</v>
+      </c>
+      <c r="C906" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D906" t="n">
+        <v>1.656806114E9</v>
+      </c>
+      <c r="E906" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F906" t="s">
+        <v>10</v>
+      </c>
+      <c r="G906" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="H906" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>915</v>
+      </c>
+      <c r="B907" t="s">
+        <v>547</v>
+      </c>
+      <c r="C907" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D907" t="n">
+        <v>1.656806174E9</v>
+      </c>
+      <c r="E907" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F907" t="s">
+        <v>10</v>
+      </c>
+      <c r="G907" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H907" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>916</v>
+      </c>
+      <c r="B908" t="s">
+        <v>547</v>
+      </c>
+      <c r="C908" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D908" t="n">
+        <v>1.656806234E9</v>
+      </c>
+      <c r="E908" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F908" t="s">
+        <v>10</v>
+      </c>
+      <c r="G908" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="H908" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>917</v>
+      </c>
+      <c r="B909" t="s">
+        <v>547</v>
+      </c>
+      <c r="C909" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D909" t="n">
+        <v>1.656806294E9</v>
+      </c>
+      <c r="E909" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F909" t="s">
+        <v>10</v>
+      </c>
+      <c r="G909" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="H909" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>918</v>
+      </c>
+      <c r="B910" t="s">
+        <v>547</v>
+      </c>
+      <c r="C910" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D910" t="n">
+        <v>1.656806354E9</v>
+      </c>
+      <c r="E910" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F910" t="s">
+        <v>10</v>
+      </c>
+      <c r="G910" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="H910" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>919</v>
+      </c>
+      <c r="B911" t="s">
+        <v>547</v>
+      </c>
+      <c r="C911" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D911" t="n">
+        <v>1.656806414E9</v>
+      </c>
+      <c r="E911" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F911" t="s">
+        <v>10</v>
+      </c>
+      <c r="G911" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="H911" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>920</v>
+      </c>
+      <c r="B912" t="s">
+        <v>547</v>
+      </c>
+      <c r="C912" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D912" t="n">
+        <v>1.656817385E9</v>
+      </c>
+      <c r="E912" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F912" t="s">
+        <v>10</v>
+      </c>
+      <c r="G912" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="H912" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="s">
+        <v>920</v>
+      </c>
+      <c r="B913" t="s">
+        <v>547</v>
+      </c>
+      <c r="C913" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D913" t="n">
+        <v>1.656817385E9</v>
+      </c>
+      <c r="E913" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F913" t="s">
+        <v>10</v>
+      </c>
+      <c r="G913" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="H913" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="s">
+        <v>921</v>
+      </c>
+      <c r="B914" t="s">
+        <v>547</v>
+      </c>
+      <c r="C914" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D914" t="n">
+        <v>1.656817385E9</v>
+      </c>
+      <c r="E914" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F914" t="s">
+        <v>10</v>
+      </c>
+      <c r="G914" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="H914" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="s">
+        <v>921</v>
+      </c>
+      <c r="B915" t="s">
+        <v>547</v>
+      </c>
+      <c r="C915" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D915" t="n">
+        <v>1.656817385E9</v>
+      </c>
+      <c r="E915" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F915" t="s">
+        <v>10</v>
+      </c>
+      <c r="G915" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="H915" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="s">
+        <v>922</v>
+      </c>
+      <c r="B916" t="s">
+        <v>547</v>
+      </c>
+      <c r="C916" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D916" t="n">
+        <v>1.656829284E9</v>
+      </c>
+      <c r="E916" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F916" t="s">
+        <v>10</v>
+      </c>
+      <c r="G916" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="H916" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8706.xlsx
+++ b/data/sheet/msg_8706.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5483" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5525" uniqueCount="929">
   <si>
     <t/>
   </si>
@@ -2790,6 +2790,24 @@
   </si>
   <si>
     <t>2022-07-03 08:21:19</t>
+  </si>
+  <si>
+    <t>2022-07-04 21:12:25</t>
+  </si>
+  <si>
+    <t>2022-07-05 10:59:53</t>
+  </si>
+  <si>
+    <t>2022-07-05 11:41:19</t>
+  </si>
+  <si>
+    <t>2022-07-05 14:12:27</t>
+  </si>
+  <si>
+    <t>2022-07-05 18:12:01</t>
+  </si>
+  <si>
+    <t>2022-07-07 12:01:26</t>
   </si>
 </sst>
 </file>
@@ -3142,7 +3160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H916"/>
+  <dimension ref="A1:H923"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26970,6 +26988,188 @@
         <v>11.0</v>
       </c>
     </row>
+    <row r="917">
+      <c r="A917" t="s">
+        <v>923</v>
+      </c>
+      <c r="B917" t="s">
+        <v>547</v>
+      </c>
+      <c r="C917" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D917" t="n">
+        <v>1.656961949E9</v>
+      </c>
+      <c r="E917" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F917" t="s">
+        <v>10</v>
+      </c>
+      <c r="G917" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="H917" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="s">
+        <v>924</v>
+      </c>
+      <c r="B918" t="s">
+        <v>547</v>
+      </c>
+      <c r="C918" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D918" t="n">
+        <v>1.6570116E9</v>
+      </c>
+      <c r="E918" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F918" t="s">
+        <v>10</v>
+      </c>
+      <c r="G918" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="H918" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="s">
+        <v>925</v>
+      </c>
+      <c r="B919" t="s">
+        <v>547</v>
+      </c>
+      <c r="C919" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D919" t="n">
+        <v>1.657014086E9</v>
+      </c>
+      <c r="E919" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F919" t="s">
+        <v>10</v>
+      </c>
+      <c r="G919" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="H919" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="s">
+        <v>926</v>
+      </c>
+      <c r="B920" t="s">
+        <v>547</v>
+      </c>
+      <c r="C920" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D920" t="n">
+        <v>1.657023153E9</v>
+      </c>
+      <c r="E920" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F920" t="s">
+        <v>10</v>
+      </c>
+      <c r="G920" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="H920" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s">
+        <v>927</v>
+      </c>
+      <c r="B921" t="s">
+        <v>547</v>
+      </c>
+      <c r="C921" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D921" t="n">
+        <v>1.657037529E9</v>
+      </c>
+      <c r="E921" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F921" t="s">
+        <v>10</v>
+      </c>
+      <c r="G921" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="H921" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s">
+        <v>928</v>
+      </c>
+      <c r="B922" t="s">
+        <v>547</v>
+      </c>
+      <c r="C922" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D922" t="n">
+        <v>1.657188087E9</v>
+      </c>
+      <c r="E922" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F922" t="s">
+        <v>10</v>
+      </c>
+      <c r="G922" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H922" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s">
+        <v>928</v>
+      </c>
+      <c r="B923" t="s">
+        <v>547</v>
+      </c>
+      <c r="C923" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D923" t="n">
+        <v>1.657188087E9</v>
+      </c>
+      <c r="E923" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F923" t="s">
+        <v>10</v>
+      </c>
+      <c r="G923" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H923" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8706.xlsx
+++ b/data/sheet/msg_8706.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5525" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5687" uniqueCount="956">
   <si>
     <t/>
   </si>
@@ -2808,6 +2808,87 @@
   </si>
   <si>
     <t>2022-07-07 12:01:26</t>
+  </si>
+  <si>
+    <t>2022-10-24 13:43:45</t>
+  </si>
+  <si>
+    <t>2022-10-24 13:44:06</t>
+  </si>
+  <si>
+    <t>2022-10-24 13:45:06</t>
+  </si>
+  <si>
+    <t>2022-10-24 13:46:06</t>
+  </si>
+  <si>
+    <t>2022-10-24 13:47:06</t>
+  </si>
+  <si>
+    <t>2022-10-24 13:48:06</t>
+  </si>
+  <si>
+    <t>2022-10-24 13:49:06</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:39:04</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:39:08</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:40:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:41:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:42:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:43:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:44:06</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:45:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:46:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:47:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:48:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:49:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:50:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:51:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:52:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:53:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:54:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:55:05</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:56:06</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:57:06</t>
   </si>
 </sst>
 </file>
@@ -3160,7 +3241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H923"/>
+  <dimension ref="A1:H950"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27170,6 +27251,708 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="924">
+      <c r="A924" t="s">
+        <v>929</v>
+      </c>
+      <c r="B924" t="s">
+        <v>547</v>
+      </c>
+      <c r="C924" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D924" t="n">
+        <v>1.666611832E9</v>
+      </c>
+      <c r="E924" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F924" t="s">
+        <v>10</v>
+      </c>
+      <c r="G924" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="H924" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s">
+        <v>930</v>
+      </c>
+      <c r="B925" t="s">
+        <v>547</v>
+      </c>
+      <c r="C925" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D925" t="n">
+        <v>1.666611854E9</v>
+      </c>
+      <c r="E925" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F925" t="s">
+        <v>10</v>
+      </c>
+      <c r="G925" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="H925" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s">
+        <v>931</v>
+      </c>
+      <c r="B926" t="s">
+        <v>547</v>
+      </c>
+      <c r="C926" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D926" t="n">
+        <v>1.666611913E9</v>
+      </c>
+      <c r="E926" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F926" t="s">
+        <v>10</v>
+      </c>
+      <c r="G926" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H926" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s">
+        <v>932</v>
+      </c>
+      <c r="B927" t="s">
+        <v>547</v>
+      </c>
+      <c r="C927" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D927" t="n">
+        <v>1.666611973E9</v>
+      </c>
+      <c r="E927" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F927" t="s">
+        <v>10</v>
+      </c>
+      <c r="G927" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H927" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s">
+        <v>933</v>
+      </c>
+      <c r="B928" t="s">
+        <v>547</v>
+      </c>
+      <c r="C928" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D928" t="n">
+        <v>1.666612033E9</v>
+      </c>
+      <c r="E928" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F928" t="s">
+        <v>10</v>
+      </c>
+      <c r="G928" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="H928" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s">
+        <v>934</v>
+      </c>
+      <c r="B929" t="s">
+        <v>547</v>
+      </c>
+      <c r="C929" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D929" t="n">
+        <v>1.666612093E9</v>
+      </c>
+      <c r="E929" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F929" t="s">
+        <v>10</v>
+      </c>
+      <c r="G929" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="H929" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s">
+        <v>935</v>
+      </c>
+      <c r="B930" t="s">
+        <v>547</v>
+      </c>
+      <c r="C930" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D930" t="n">
+        <v>1.666612153E9</v>
+      </c>
+      <c r="E930" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F930" t="s">
+        <v>10</v>
+      </c>
+      <c r="G930" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="H930" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s">
+        <v>936</v>
+      </c>
+      <c r="B931" t="s">
+        <v>547</v>
+      </c>
+      <c r="C931" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D931" t="n">
+        <v>1.666903154E9</v>
+      </c>
+      <c r="E931" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F931" t="s">
+        <v>10</v>
+      </c>
+      <c r="G931" t="n">
+        <v>-58756.0</v>
+      </c>
+      <c r="H931" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s">
+        <v>937</v>
+      </c>
+      <c r="B932" t="s">
+        <v>547</v>
+      </c>
+      <c r="C932" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D932" t="n">
+        <v>1.666903155E9</v>
+      </c>
+      <c r="E932" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F932" t="s">
+        <v>10</v>
+      </c>
+      <c r="G932" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="H932" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s">
+        <v>938</v>
+      </c>
+      <c r="B933" t="s">
+        <v>547</v>
+      </c>
+      <c r="C933" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D933" t="n">
+        <v>1.666903215E9</v>
+      </c>
+      <c r="E933" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F933" t="s">
+        <v>10</v>
+      </c>
+      <c r="G933" t="n">
+        <v>336.0</v>
+      </c>
+      <c r="H933" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s">
+        <v>939</v>
+      </c>
+      <c r="B934" t="s">
+        <v>547</v>
+      </c>
+      <c r="C934" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D934" t="n">
+        <v>1.666903275E9</v>
+      </c>
+      <c r="E934" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F934" t="s">
+        <v>10</v>
+      </c>
+      <c r="G934" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="H934" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s">
+        <v>940</v>
+      </c>
+      <c r="B935" t="s">
+        <v>547</v>
+      </c>
+      <c r="C935" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D935" t="n">
+        <v>1.666903335E9</v>
+      </c>
+      <c r="E935" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F935" t="s">
+        <v>10</v>
+      </c>
+      <c r="G935" t="n">
+        <v>561.0</v>
+      </c>
+      <c r="H935" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s">
+        <v>941</v>
+      </c>
+      <c r="B936" t="s">
+        <v>547</v>
+      </c>
+      <c r="C936" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D936" t="n">
+        <v>1.666903395E9</v>
+      </c>
+      <c r="E936" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F936" t="s">
+        <v>10</v>
+      </c>
+      <c r="G936" t="n">
+        <v>396.0</v>
+      </c>
+      <c r="H936" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s">
+        <v>942</v>
+      </c>
+      <c r="B937" t="s">
+        <v>547</v>
+      </c>
+      <c r="C937" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D937" t="n">
+        <v>1.666903456E9</v>
+      </c>
+      <c r="E937" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F937" t="s">
+        <v>10</v>
+      </c>
+      <c r="G937" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H937" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s">
+        <v>943</v>
+      </c>
+      <c r="B938" t="s">
+        <v>547</v>
+      </c>
+      <c r="C938" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D938" t="n">
+        <v>1.666903516E9</v>
+      </c>
+      <c r="E938" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F938" t="s">
+        <v>10</v>
+      </c>
+      <c r="G938" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="H938" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s">
+        <v>944</v>
+      </c>
+      <c r="B939" t="s">
+        <v>547</v>
+      </c>
+      <c r="C939" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D939" t="n">
+        <v>1.666903576E9</v>
+      </c>
+      <c r="E939" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F939" t="s">
+        <v>10</v>
+      </c>
+      <c r="G939" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="H939" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s">
+        <v>945</v>
+      </c>
+      <c r="B940" t="s">
+        <v>547</v>
+      </c>
+      <c r="C940" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D940" t="n">
+        <v>1.666903636E9</v>
+      </c>
+      <c r="E940" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F940" t="s">
+        <v>10</v>
+      </c>
+      <c r="G940" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="H940" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s">
+        <v>946</v>
+      </c>
+      <c r="B941" t="s">
+        <v>547</v>
+      </c>
+      <c r="C941" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D941" t="n">
+        <v>1.666903696E9</v>
+      </c>
+      <c r="E941" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F941" t="s">
+        <v>10</v>
+      </c>
+      <c r="G941" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="H941" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s">
+        <v>947</v>
+      </c>
+      <c r="B942" t="s">
+        <v>547</v>
+      </c>
+      <c r="C942" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D942" t="n">
+        <v>1.666903756E9</v>
+      </c>
+      <c r="E942" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F942" t="s">
+        <v>10</v>
+      </c>
+      <c r="G942" t="n">
+        <v>467.0</v>
+      </c>
+      <c r="H942" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s">
+        <v>948</v>
+      </c>
+      <c r="B943" t="s">
+        <v>547</v>
+      </c>
+      <c r="C943" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D943" t="n">
+        <v>1.666903816E9</v>
+      </c>
+      <c r="E943" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F943" t="s">
+        <v>10</v>
+      </c>
+      <c r="G943" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="H943" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s">
+        <v>949</v>
+      </c>
+      <c r="B944" t="s">
+        <v>547</v>
+      </c>
+      <c r="C944" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D944" t="n">
+        <v>1.666903876E9</v>
+      </c>
+      <c r="E944" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F944" t="s">
+        <v>10</v>
+      </c>
+      <c r="G944" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="H944" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s">
+        <v>950</v>
+      </c>
+      <c r="B945" t="s">
+        <v>547</v>
+      </c>
+      <c r="C945" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D945" t="n">
+        <v>1.666903936E9</v>
+      </c>
+      <c r="E945" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F945" t="s">
+        <v>10</v>
+      </c>
+      <c r="G945" t="n">
+        <v>421.0</v>
+      </c>
+      <c r="H945" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s">
+        <v>951</v>
+      </c>
+      <c r="B946" t="s">
+        <v>547</v>
+      </c>
+      <c r="C946" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D946" t="n">
+        <v>1.666903996E9</v>
+      </c>
+      <c r="E946" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F946" t="s">
+        <v>10</v>
+      </c>
+      <c r="G946" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="H946" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s">
+        <v>952</v>
+      </c>
+      <c r="B947" t="s">
+        <v>547</v>
+      </c>
+      <c r="C947" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D947" t="n">
+        <v>1.666904056E9</v>
+      </c>
+      <c r="E947" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F947" t="s">
+        <v>10</v>
+      </c>
+      <c r="G947" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="H947" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="s">
+        <v>953</v>
+      </c>
+      <c r="B948" t="s">
+        <v>547</v>
+      </c>
+      <c r="C948" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D948" t="n">
+        <v>1.666904116E9</v>
+      </c>
+      <c r="E948" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F948" t="s">
+        <v>10</v>
+      </c>
+      <c r="G948" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="H948" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="s">
+        <v>954</v>
+      </c>
+      <c r="B949" t="s">
+        <v>547</v>
+      </c>
+      <c r="C949" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D949" t="n">
+        <v>1.666904176E9</v>
+      </c>
+      <c r="E949" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F949" t="s">
+        <v>10</v>
+      </c>
+      <c r="G949" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="H949" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="s">
+        <v>955</v>
+      </c>
+      <c r="B950" t="s">
+        <v>547</v>
+      </c>
+      <c r="C950" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="D950" t="n">
+        <v>1.666904236E9</v>
+      </c>
+      <c r="E950" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F950" t="s">
+        <v>10</v>
+      </c>
+      <c r="G950" t="n">
+        <v>1296.0</v>
+      </c>
+      <c r="H950" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
